--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_NOx.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_NOx.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_NOx</t>
+  </si>
+  <si>
+    <t>02_taxi_NOx</t>
+  </si>
+  <si>
+    <t>03_van_NOx</t>
+  </si>
+  <si>
+    <t>04_bus_NOx</t>
+  </si>
+  <si>
+    <t>05_LightTruck_NOx</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_NOx</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_NOx</t>
+  </si>
+  <si>
+    <t>Total_NOx (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1290 +397,1393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_NOx</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_NOx</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_NOx</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_NOx</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_NOx</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_NOx</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_NOx (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>112.8744133828381</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.1375953380904638</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.1414742534452431</v>
+      </c>
+      <c r="D2">
         <v>98.2200402663119</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>13.89596494534275</v>
+      </c>
+      <c r="F2">
         <v>142.3738802157968</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>139.1085996743105</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>7.14393166334107</v>
       </c>
-      <c r="H2" t="n">
-        <v>499.8584605406888</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>513.7583044013863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>117.5834597060158</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.1688670058382965</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>0.1736274928646166</v>
+      </c>
+      <c r="D3">
         <v>94.34293341369433</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>15.58032433265702</v>
+      </c>
+      <c r="F3">
         <v>132.6535751408228</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>123.3604563149545</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>5.495332048723901</v>
       </c>
-      <c r="H3" t="n">
-        <v>473.6046236300497</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>489.189708449733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>124.5043308173529</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.16261267228873</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0.1671968449807419</v>
+      </c>
+      <c r="D4">
         <v>95.63530236456681</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>14.31705479217131</v>
+      </c>
+      <c r="F4">
         <v>130.3664445349465</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>117.2361783418717</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>9.342064482830633</v>
       </c>
-      <c r="H4" t="n">
-        <v>477.2469332138573</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>491.5685721787206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>123.291394643201</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.1469768384148137</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.1511202252710552</v>
+      </c>
+      <c r="D5">
         <v>80.12687495409658</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>15.58032433265702</v>
+      </c>
+      <c r="F5">
         <v>148.6634893819565</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>80.49051050337459</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>7.14393166334107</v>
       </c>
-      <c r="H5" t="n">
-        <v>439.8631779843845</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>455.4476457038978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>132.0673446091234</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.1438496716400304</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0.1479049013291178</v>
+      </c>
+      <c r="D6">
         <v>111.1437297750372</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>16.00141417948558</v>
+      </c>
+      <c r="F6">
         <v>137.2278363525753</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>97.11355071602807</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>7.14393166334107</v>
       </c>
-      <c r="H6" t="n">
-        <v>484.840242787745</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>500.8457121969196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>138.3460730400272</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.1501040051895969</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>0.1543355492129925</v>
+      </c>
+      <c r="D7">
         <v>105.974253971547</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>15.15923448582845</v>
+      </c>
+      <c r="F7">
         <v>133.2253577922918</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>83.11520106326726</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>8.24299807308585</v>
       </c>
-      <c r="H7" t="n">
-        <v>469.0539879454088</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>484.2174539752605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>157.2536075194532</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.1125780038921977</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0.1157516619097444</v>
+      </c>
+      <c r="D8">
         <v>113.7284676767822</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>22.31776188191411</v>
+      </c>
+      <c r="F8">
         <v>127.5075312776011</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>48.9942237846628</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>10.44113089257541</v>
       </c>
-      <c r="H8" t="n">
-        <v>458.0375391549669</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>480.3584746948986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>171.8801907959905</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.0906878364687148</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.09324439431618296</v>
+      </c>
+      <c r="D9">
         <v>98.2200402663119</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>31.58173851214261</v>
+      </c>
+      <c r="F9">
         <v>92.62878953798824</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>37.62056469179465</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>3.29719922923434</v>
       </c>
-      <c r="H9" t="n">
-        <v>403.7374723577884</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>435.3217674277785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>174.5914598911534</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.1063236703426311</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0.1093210140258697</v>
+      </c>
+      <c r="D10">
         <v>77.54213705235145</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>33.68718774628544</v>
+      </c>
+      <c r="F10">
         <v>49.74509067780853</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>20.12262762584365</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>1.64859961461717</v>
       </c>
-      <c r="H10" t="n">
-        <v>323.7562385321169</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>357.4464236220856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>112.7317150094083</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.1657398390635132</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0.1704121689226792</v>
+      </c>
+      <c r="D11">
         <v>46.52528223141088</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>27.79192989068549</v>
+      </c>
+      <c r="F11">
         <v>22.87130605876255</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>14.87324650605835</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>2.19813281948956</v>
       </c>
-      <c r="H11" t="n">
-        <v>199.3654224641932</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>227.1620246847378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>97.10624311886389</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.1845028397122129</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.1897041125743033</v>
+      </c>
+      <c r="D12">
         <v>38.77106852617572</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>24.00212126922838</v>
+      </c>
+      <c r="F12">
         <v>27.44556727051506</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>13.12345279946325</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>1.64859961461717</v>
       </c>
-      <c r="H12" t="n">
-        <v>178.2794341693473</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>202.2867567114378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>73.91775743654885</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.1031965035678479</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.1061056900839324</v>
+      </c>
+      <c r="D13">
         <v>33.60159272268567</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>19.37013295411413</v>
+      </c>
+      <c r="F13">
         <v>18.86882749847909</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>9.623865386273055</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>136.1152395475545</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>155.4882816881847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>54.01133434311529</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.1094508371174144</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0.1125363379678071</v>
+      </c>
+      <c r="D14">
         <v>27.13974796832302</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>9.685066477057065</v>
+      </c>
+      <c r="F14">
         <v>18.86882749847909</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>10.4987622395706</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.54953320487239</v>
       </c>
-      <c r="H14" t="n">
-        <v>111.1776560914778</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>120.8658080693853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>33.81951450282252</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.02814450097304942</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0.0289379154774361</v>
+      </c>
+      <c r="D15">
         <v>11.63132055785272</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>8.842886783399926</v>
+      </c>
+      <c r="F15">
         <v>10.29208772644314</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>14.87324650605835</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.54953320487239</v>
       </c>
-      <c r="H15" t="n">
-        <v>71.19384699902217</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>80.03752719692649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>23.75927917603356</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.06567050227044864</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0.06752180278068423</v>
+      </c>
+      <c r="D16">
         <v>7.754213705235146</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>4.21089846828568</v>
+      </c>
+      <c r="F16">
         <v>21.15595810435534</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>9.623865386273055</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>1.09906640974478</v>
       </c>
-      <c r="H16" t="n">
-        <v>63.45805328391233</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>67.67080305270824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>15.34007514368532</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.09694217001828134</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0.09967504220005766</v>
+      </c>
+      <c r="D17">
         <v>2.584737901745051</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>15.43813158966471</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>15.74814335935591</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>49.20803016446927</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>49.21076303665104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>9.917536953359345</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.06567050227044864</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0.06752180278068423</v>
+      </c>
+      <c r="D18">
         <v>9.046582656107672</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>10.29208772644314</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>20.12262762584365</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>49.44450546402426</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>49.44635676453449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>11.13047312751121</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.05628900194609884</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0.0578758309548722</v>
+      </c>
+      <c r="D19">
         <v>7.754213705235146</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>3.368718774628544</v>
+      </c>
+      <c r="F19">
         <v>13.15100098378846</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>19.24773077254611</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>51.33970759102702</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>54.71001319466434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>19.90642309343352</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.03752600129739923</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.03858388730324813</v>
+      </c>
+      <c r="D20">
         <v>18.09316531221534</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>1.684359387314272</v>
+      </c>
+      <c r="F20">
         <v>26.30200196757692</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>24.4971118923314</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>88.83622826685458</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>90.5216455401747</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>47.87530428564116</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.02814450097304942</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.0289379154774361</v>
+      </c>
+      <c r="D21">
         <v>38.77106852617572</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>15.58032433265702</v>
+      </c>
+      <c r="F21">
         <v>46.88617742046321</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>35.87077098519955</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>1.64859961461717</v>
       </c>
-      <c r="H21" t="n">
-        <v>171.0800653330699</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>186.6611830802313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>90.97021306138971</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.0406531680721825</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.04179921124518548</v>
+      </c>
+      <c r="D22">
         <v>82.71161285584162</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>41.68789483602824</v>
+      </c>
+      <c r="F22">
         <v>80.62135385713793</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>62.99257343742362</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>5.495332048723901</v>
       </c>
-      <c r="H22" t="n">
-        <v>322.831738428589</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>364.5207793077903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>146.4085311388012</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.04378033484696577</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.04501453518712282</v>
+      </c>
+      <c r="D23">
         <v>64.61844754362626</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>41.26680498919966</v>
+      </c>
+      <c r="F23">
         <v>93.77235484092643</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>79.61561365007707</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>4.94579884385151</v>
       </c>
-      <c r="H23" t="n">
-        <v>389.4045263521294</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>430.6725655416693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>179.72860133462</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.0906878364687148</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>0.09324439431618296</v>
+      </c>
+      <c r="D24">
         <v>94.34293341369433</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>25.26539080971408</v>
+      </c>
+      <c r="F24">
         <v>114.9283129452818</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>97.11355071602807</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>10.9906640974478</v>
       </c>
-      <c r="H24" t="n">
-        <v>497.1947503435406</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>522.4626977111022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>130.7117100615419</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.1594855055139467</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>0.1639815210388046</v>
+      </c>
+      <c r="D25">
         <v>131.8216329889974</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>25.26539080971408</v>
+      </c>
+      <c r="F25">
         <v>129.2228792320084</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>129.4847342880374</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>15.38692973642692</v>
       </c>
-      <c r="H25" t="n">
-        <v>536.7873718125261</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>562.057258637765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>110.591239407964</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.1063236703426311</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0.1093210140258697</v>
+      </c>
+      <c r="D26">
         <v>140.8682156451052</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>13.47487509851418</v>
+      </c>
+      <c r="F26">
         <v>138.9431843069824</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>151.3571556204761</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>7.69346486821346</v>
       </c>
-      <c r="H26" t="n">
-        <v>549.5595835190838</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>563.0374559612812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>115.2289365444268</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.1313410045408973</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>0.1350436055613685</v>
+      </c>
+      <c r="D27">
         <v>135.6987398416151</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>15.15923448582845</v>
+      </c>
+      <c r="F27">
         <v>129.2228792320084</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>134.7341154078227</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>6.044865253596292</v>
       </c>
-      <c r="H27" t="n">
-        <v>521.0608772840103</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>536.2238143708591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>122.0071092823344</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.1250866709913308</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.1286129576774938</v>
+      </c>
+      <c r="D28">
         <v>138.2834777433602</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>13.89596494534275</v>
+      </c>
+      <c r="F28">
         <v>126.9357486261321</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>127.7349405814423</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>10.44113089257541</v>
       </c>
-      <c r="H28" t="n">
-        <v>525.5274937968358</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>539.4269850288646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>120.7941731081826</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.1125780038921977</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>0.1157516619097444</v>
+      </c>
+      <c r="D29">
         <v>115.0208366276547</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>15.15923448582845</v>
+      </c>
+      <c r="F29">
         <v>144.661010821673</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>87.48968532975503</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>7.69346486821346</v>
       </c>
-      <c r="H29" t="n">
-        <v>475.7717487593711</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>490.9341569032171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>129.4274247006752</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.1094508371174144</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>0.1125363379678071</v>
+      </c>
+      <c r="D30">
         <v>160.2537499081932</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>15.58032433265702</v>
+      </c>
+      <c r="F30">
         <v>133.7971404437608</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>105.8625192490036</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>7.69346486821346</v>
       </c>
-      <c r="H30" t="n">
-        <v>537.1437500069635</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>552.727159840471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>135.5634547581493</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.115705170666981</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0.1189669858516818</v>
+      </c>
+      <c r="D31">
         <v>152.4995362029579</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>14.73814463899988</v>
+      </c>
+      <c r="F31">
         <v>129.7946618834775</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>90.98927274294522</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>8.79253127795824</v>
       </c>
-      <c r="H31" t="n">
-        <v>517.7551620361552</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>532.4965684903398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>154.1142433040013</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.08756066969393153</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>0.09002907037424564</v>
+      </c>
+      <c r="D32">
         <v>164.1308567608106</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>21.47558218825697</v>
+      </c>
+      <c r="F32">
         <v>124.0768353687868</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>53.36870805115058</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>11.54019730232019</v>
       </c>
-      <c r="H32" t="n">
-        <v>507.3184014567634</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>528.7964520457006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>168.4554298336793</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.06879766904523191</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>0.07073712672262156</v>
+      </c>
+      <c r="D33">
         <v>140.8682156451052</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>30.73955881848546</v>
+      </c>
+      <c r="F33">
         <v>90.34165893211203</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>41.12015210498487</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>3.84673243410673</v>
       </c>
-      <c r="H33" t="n">
-        <v>444.7009866190334</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>475.4424848951962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>171.0953497421274</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.081306336144365</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>0.08359842249037096</v>
+      </c>
+      <c r="D34">
         <v>111.1437297750372</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>32.84500805262831</v>
+      </c>
+      <c r="F34">
         <v>48.60152537487039</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>21.87242133243876</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>1.64859961461717</v>
       </c>
-      <c r="H34" t="n">
-        <v>354.4429321752352</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>387.2902323142096</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>110.4485410345344</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.128213837766114</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>0.1318282816194311</v>
+      </c>
+      <c r="D35">
         <v>67.20318544537133</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>26.94975019702835</v>
+      </c>
+      <c r="F35">
         <v>22.29952340729347</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>16.62304021265344</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>2.19813281948956</v>
       </c>
-      <c r="H35" t="n">
-        <v>218.9006367571083</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>245.8540013979899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>95.17981507756377</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.1407225048652471</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0.1446895773871805</v>
+      </c>
+      <c r="D36">
         <v>55.57186488751858</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>23.15994157557124</v>
+      </c>
+      <c r="F36">
         <v>26.87378461904599</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>13.99834965276081</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>1.64859961461717</v>
       </c>
-      <c r="H36" t="n">
-        <v>193.4131363563716</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>216.5770450044647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>72.41942451553767</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.07817916936958173</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>0.08038309854843362</v>
+      </c>
+      <c r="D37">
         <v>47.81765118228341</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>18.94904310728556</v>
+      </c>
+      <c r="F37">
         <v>18.29704484701002</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>10.4987622395706</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>149.1110619537713</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>168.0623089902357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>52.94109654239303</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.08443350291914825</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>0.0868137464323083</v>
+      </c>
+      <c r="D38">
         <v>38.77106852617572</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>9.263976630228496</v>
+      </c>
+      <c r="F38">
         <v>18.29704484701002</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>11.37365909286815</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.54953320487239</v>
       </c>
-      <c r="H38" t="n">
-        <v>122.0168357162385</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>131.2831925899801</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>33.10602263567435</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.02189016742348288</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>0.02250726759356141</v>
+      </c>
+      <c r="D39">
         <v>16.80079636134283</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>8.42179693657136</v>
+      </c>
+      <c r="F39">
         <v>10.29208772644314</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>16.62304021265344</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.54953320487239</v>
       </c>
-      <c r="H39" t="n">
-        <v>77.39337030840964</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>85.81578434515107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>23.25983486902984</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.05003466839653231</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0.05144518307099751</v>
+      </c>
+      <c r="D40">
         <v>11.63132055785272</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>4.21089846828568</v>
+      </c>
+      <c r="F40">
         <v>20.58417545288629</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>10.4987622395706</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>1.09906640974478</v>
       </c>
-      <c r="H40" t="n">
-        <v>67.12319419748076</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>71.3355031804409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>15.05467839682606</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.07505200259479845</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0.07716777460649626</v>
+      </c>
+      <c r="D41">
         <v>3.877106852617573</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>14.86634893819565</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>17.49793706595101</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>51.37112325618508</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>51.37323902819678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>9.703489393214889</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.05003466839653231</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>0.05144518307099751</v>
+      </c>
+      <c r="D42">
         <v>12.92368950872524</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42">
         <v>10.29208772644314</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>21.87242133243876</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>54.84172262921857</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>54.84313314389303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>10.91642556736676</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.04378033484696577</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.04501453518712282</v>
+      </c>
+      <c r="D43">
         <v>11.63132055785272</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>3.368718774628544</v>
+      </c>
+      <c r="F43">
         <v>12.5792183323194</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>20.9975244791412</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>56.16826927152704</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>59.53822224649575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>19.47832797314462</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.02814450097304942</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>0.0289379154774361</v>
+      </c>
+      <c r="D44">
         <v>25.84737901745049</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>1.684359387314272</v>
+      </c>
+      <c r="F44">
         <v>25.73021931610786</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>27.12180245222407</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>98.20587325990009</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>99.89102606171875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>46.8764156716337</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.02189016742348288</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.02250726759356141</v>
+      </c>
+      <c r="D45">
         <v>55.57186488751858</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>15.15923448582845</v>
+      </c>
+      <c r="F45">
         <v>45.74261211752509</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>39.37035839838974</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>1.64859961461717</v>
       </c>
-      <c r="H45" t="n">
-        <v>189.2317408571078</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>204.3915924431063</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>89.11513420680453</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.0312716677478327</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.03215323941937345</v>
+      </c>
+      <c r="D46">
         <v>118.8979434802723</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>40.42462529554254</v>
+      </c>
+      <c r="F46">
         <v>78.33422325126168</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>68.24195455720889</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>6.044865253596292</v>
       </c>
-      <c r="H46" t="n">
-        <v>360.6653924168916</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>401.0908992841057</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>143.4832144834939</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.03439883452261595</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>0.03536856336131078</v>
+      </c>
+      <c r="D47">
         <v>93.05056446282177</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>40.00353544871398</v>
+      </c>
+      <c r="F47">
         <v>91.48522423505018</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>86.61478847645749</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>5.495332048723901</v>
       </c>
-      <c r="H47" t="n">
-        <v>420.1635225410698</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>460.1680277186225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>176.0897928121645</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.06879766904523191</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>0.07073712672262156</v>
+      </c>
+      <c r="D48">
         <v>135.6987398416151</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>24.42321111605694</v>
+      </c>
+      <c r="F48">
         <v>112.0693996879364</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>105.8625192490036</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>12.08973050719258</v>
       </c>
-      <c r="H48" t="n">
-        <v>541.8789797669574</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>566.3041303406918</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>128.0717901530938</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.1219595042165475</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>0.1253976337355564</v>
+      </c>
+      <c r="D49">
         <v>189.9782357782612</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>24.42321111605694</v>
+      </c>
+      <c r="F49">
         <v>125.792183323194</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>140.8583933809055</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>17.03552935104409</v>
       </c>
-      <c r="H49" t="n">
-        <v>601.858091490715</v>
+      <c r="I49">
+        <v>626.284740736291</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_NOx.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>112.8744133828381</v>
+        <v>347.2068457289579</v>
       </c>
       <c r="C2">
-        <v>0.1414742534452431</v>
+        <v>0.4351812586965844</v>
       </c>
       <c r="D2">
-        <v>98.2200402663119</v>
+        <v>302.1293253819252</v>
       </c>
       <c r="E2">
-        <v>13.89596494534275</v>
+        <v>42.74462220829765</v>
       </c>
       <c r="F2">
-        <v>142.3738802157968</v>
+        <v>437.9485516904168</v>
       </c>
       <c r="G2">
-        <v>139.1085996743105</v>
+        <v>427.9043997586203</v>
       </c>
       <c r="H2">
-        <v>7.14393166334107</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I2">
-        <v>513.7583044013863</v>
+        <v>1580.343985782211</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>117.5834597060158</v>
+        <v>361.6920870804821</v>
       </c>
       <c r="C3">
-        <v>0.1736274928646166</v>
+        <v>0.5340860902185356</v>
       </c>
       <c r="D3">
-        <v>94.34293341369433</v>
+        <v>290.2031678010596</v>
       </c>
       <c r="E3">
-        <v>15.58032433265702</v>
+        <v>47.92578853657616</v>
       </c>
       <c r="F3">
-        <v>132.6535751408228</v>
+        <v>408.0484497677779</v>
       </c>
       <c r="G3">
-        <v>123.3604563149545</v>
+        <v>379.4623922387767</v>
       </c>
       <c r="H3">
-        <v>5.495332048723901</v>
+        <v>16.90389211945869</v>
       </c>
       <c r="I3">
-        <v>489.189708449733</v>
+        <v>1504.76986363435</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>124.5043308173529</v>
+        <v>382.9810024001466</v>
       </c>
       <c r="C4">
-        <v>0.1671968449807419</v>
+        <v>0.5143051239141453</v>
       </c>
       <c r="D4">
-        <v>95.63530236456681</v>
+        <v>294.1785536613484</v>
       </c>
       <c r="E4">
-        <v>14.31705479217131</v>
+        <v>44.03991379036726</v>
       </c>
       <c r="F4">
-        <v>130.3664445349465</v>
+        <v>401.0131316683335</v>
       </c>
       <c r="G4">
-        <v>117.2361783418717</v>
+        <v>360.6238337588374</v>
       </c>
       <c r="H4">
-        <v>9.342064482830633</v>
+        <v>28.73661660307977</v>
       </c>
       <c r="I4">
-        <v>491.5685721787206</v>
+        <v>1512.087357006027</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>123.291394643201</v>
+        <v>379.2499553853601</v>
       </c>
       <c r="C5">
-        <v>0.1511202252710552</v>
+        <v>0.4648527081531697</v>
       </c>
       <c r="D5">
-        <v>80.12687495409658</v>
+        <v>246.4739233378863</v>
       </c>
       <c r="E5">
-        <v>15.58032433265702</v>
+        <v>47.92578853657616</v>
       </c>
       <c r="F5">
-        <v>148.6634893819565</v>
+        <v>457.295676463889</v>
       </c>
       <c r="G5">
-        <v>80.49051050337459</v>
+        <v>247.5924828792018</v>
       </c>
       <c r="H5">
-        <v>7.14393166334107</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I5">
-        <v>455.4476457038978</v>
+        <v>1400.977739066363</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>132.0673446091234</v>
+        <v>406.2451779041095</v>
       </c>
       <c r="C6">
-        <v>0.1479049013291178</v>
+        <v>0.4549622250009747</v>
       </c>
       <c r="D6">
-        <v>111.1437297750372</v>
+        <v>341.88318398481</v>
       </c>
       <c r="E6">
-        <v>16.00141417948558</v>
+        <v>49.22108011864578</v>
       </c>
       <c r="F6">
-        <v>137.2278363525753</v>
+        <v>422.1190859666668</v>
       </c>
       <c r="G6">
-        <v>97.11355071602807</v>
+        <v>298.725713039037</v>
       </c>
       <c r="H6">
-        <v>7.14393166334107</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I6">
-        <v>500.8457121969196</v>
+        <v>1540.624262993566</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>138.3460730400272</v>
+        <v>425.5588330394752</v>
       </c>
       <c r="C7">
-        <v>0.1543355492129925</v>
+        <v>0.4747431913053647</v>
       </c>
       <c r="D7">
-        <v>105.974253971547</v>
+        <v>325.9816405436562</v>
       </c>
       <c r="E7">
-        <v>15.15923448582845</v>
+        <v>46.63049695450652</v>
       </c>
       <c r="F7">
-        <v>133.2253577922918</v>
+        <v>409.8072792926391</v>
       </c>
       <c r="G7">
-        <v>83.11520106326726</v>
+        <v>255.6661507991758</v>
       </c>
       <c r="H7">
-        <v>8.24299807308585</v>
+        <v>25.35583817918803</v>
       </c>
       <c r="I7">
-        <v>484.2174539752605</v>
+        <v>1489.474981999946</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>157.2536075194532</v>
+        <v>483.7192717993828</v>
       </c>
       <c r="C8">
-        <v>0.1157516619097444</v>
+        <v>0.3560573934790236</v>
       </c>
       <c r="D8">
-        <v>113.7284676767822</v>
+        <v>349.833955705387</v>
       </c>
       <c r="E8">
-        <v>22.31776188191411</v>
+        <v>68.65045384969012</v>
       </c>
       <c r="F8">
-        <v>127.5075312776011</v>
+        <v>392.2189840440279</v>
       </c>
       <c r="G8">
-        <v>48.9942237846628</v>
+        <v>150.7084678395141</v>
       </c>
       <c r="H8">
-        <v>10.44113089257541</v>
+        <v>32.11739502697151</v>
       </c>
       <c r="I8">
-        <v>480.3584746948986</v>
+        <v>1477.604585658453</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>171.8801907959905</v>
+        <v>528.7113093306316</v>
       </c>
       <c r="C9">
-        <v>0.09324439431618296</v>
+        <v>0.2868240114136579</v>
       </c>
       <c r="D9">
-        <v>98.2200402663119</v>
+        <v>302.1293253819252</v>
       </c>
       <c r="E9">
-        <v>31.58173851214261</v>
+        <v>97.14686865522189</v>
       </c>
       <c r="F9">
-        <v>92.62878953798824</v>
+        <v>284.9303830275</v>
       </c>
       <c r="G9">
-        <v>37.62056469179465</v>
+        <v>115.7225735196269</v>
       </c>
       <c r="H9">
-        <v>3.29719922923434</v>
+        <v>10.14233527167521</v>
       </c>
       <c r="I9">
-        <v>435.3217674277785</v>
+        <v>1339.069619197994</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>174.5914598911534</v>
+        <v>537.0512967754488</v>
       </c>
       <c r="C10">
-        <v>0.1093210140258697</v>
+        <v>0.3362764271746335</v>
       </c>
       <c r="D10">
-        <v>77.54213705235145</v>
+        <v>238.5231516173093</v>
       </c>
       <c r="E10">
-        <v>33.68718774628544</v>
+        <v>103.6233265655701</v>
       </c>
       <c r="F10">
-        <v>49.74509067780853</v>
+        <v>153.0181686629167</v>
       </c>
       <c r="G10">
-        <v>20.12262762584365</v>
+        <v>61.89812071980044</v>
       </c>
       <c r="H10">
-        <v>1.64859961461717</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I10">
-        <v>357.4464236220856</v>
+        <v>1099.521508404058</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>112.7317150094083</v>
+        <v>346.7678990213357</v>
       </c>
       <c r="C11">
-        <v>0.1704121689226792</v>
+        <v>0.5241956070663404</v>
       </c>
       <c r="D11">
-        <v>46.52528223141088</v>
+        <v>143.1138909703857</v>
       </c>
       <c r="E11">
-        <v>27.79192989068549</v>
+        <v>85.4892444165953</v>
       </c>
       <c r="F11">
-        <v>22.87130605876255</v>
+        <v>70.35318099444447</v>
       </c>
       <c r="G11">
-        <v>14.87324650605835</v>
+        <v>45.75078487985251</v>
       </c>
       <c r="H11">
-        <v>2.19813281948956</v>
+        <v>6.761556847783477</v>
       </c>
       <c r="I11">
-        <v>227.1620246847378</v>
+        <v>698.7607527374636</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>97.10624311886389</v>
+        <v>298.7032345367331</v>
       </c>
       <c r="C12">
-        <v>0.1897041125743033</v>
+        <v>0.5835385059795108</v>
       </c>
       <c r="D12">
-        <v>38.77106852617572</v>
+        <v>119.2615758086547</v>
       </c>
       <c r="E12">
-        <v>24.00212126922838</v>
+        <v>73.83162017796869</v>
       </c>
       <c r="F12">
-        <v>27.44556727051506</v>
+        <v>84.42381719333335</v>
       </c>
       <c r="G12">
-        <v>13.12345279946325</v>
+        <v>40.36833959986986</v>
       </c>
       <c r="H12">
-        <v>1.64859961461717</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I12">
-        <v>202.2867567114378</v>
+        <v>622.2432934583767</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>73.91775743654885</v>
+        <v>227.3743945481673</v>
       </c>
       <c r="C13">
-        <v>0.1061056900839324</v>
+        <v>0.3263859440224383</v>
       </c>
       <c r="D13">
-        <v>33.60159272268567</v>
+        <v>103.3600323675007</v>
       </c>
       <c r="E13">
-        <v>19.37013295411413</v>
+        <v>59.58341277520279</v>
       </c>
       <c r="F13">
-        <v>18.86882749847909</v>
+        <v>58.04137432041668</v>
       </c>
       <c r="G13">
-        <v>9.623865386273055</v>
+        <v>29.60344903990455</v>
       </c>
       <c r="I13">
-        <v>155.4882816881847</v>
+        <v>478.2890489952145</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>54.01133434311529</v>
+        <v>166.1413288349059</v>
       </c>
       <c r="C14">
-        <v>0.1125363379678071</v>
+        <v>0.3461669103268285</v>
       </c>
       <c r="D14">
-        <v>27.13974796832302</v>
+        <v>83.48310306605828</v>
       </c>
       <c r="E14">
-        <v>9.685066477057065</v>
+        <v>29.79170638760139</v>
       </c>
       <c r="F14">
-        <v>18.86882749847909</v>
+        <v>58.04137432041668</v>
       </c>
       <c r="G14">
-        <v>10.4987622395706</v>
+        <v>32.29467167989588</v>
       </c>
       <c r="H14">
-        <v>0.54953320487239</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I14">
-        <v>120.8658080693853</v>
+        <v>371.7887404111508</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>33.81951450282252</v>
+        <v>104.0303697064008</v>
       </c>
       <c r="C15">
-        <v>0.0289379154774361</v>
+        <v>0.0890143483697559</v>
       </c>
       <c r="D15">
-        <v>11.63132055785272</v>
+        <v>35.77847274259641</v>
       </c>
       <c r="E15">
-        <v>8.842886783399926</v>
+        <v>27.20112322346214</v>
       </c>
       <c r="F15">
-        <v>10.29208772644314</v>
+        <v>31.65893144750001</v>
       </c>
       <c r="G15">
-        <v>14.87324650605835</v>
+        <v>45.75078487985251</v>
       </c>
       <c r="H15">
-        <v>0.54953320487239</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I15">
-        <v>80.03752719692649</v>
+        <v>246.1990855601275</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>23.75927917603356</v>
+        <v>73.08462681905374</v>
       </c>
       <c r="C16">
-        <v>0.06752180278068423</v>
+        <v>0.2077001461960971</v>
       </c>
       <c r="D16">
-        <v>7.754213705235146</v>
+        <v>23.85231516173093</v>
       </c>
       <c r="E16">
-        <v>4.21089846828568</v>
+        <v>12.95291582069626</v>
       </c>
       <c r="F16">
-        <v>21.15595810435534</v>
+        <v>65.07669241986115</v>
       </c>
       <c r="G16">
-        <v>9.623865386273055</v>
+        <v>29.60344903990455</v>
       </c>
       <c r="H16">
-        <v>1.09906640974478</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I16">
-        <v>67.67080305270824</v>
+        <v>208.1584778313345</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>15.34007514368532</v>
+        <v>47.18677106935903</v>
       </c>
       <c r="C17">
-        <v>0.09967504220005766</v>
+        <v>0.3066049777180482</v>
       </c>
       <c r="D17">
-        <v>2.584737901745051</v>
+        <v>7.950771720576974</v>
       </c>
       <c r="F17">
-        <v>15.43813158966471</v>
+        <v>47.48839717125001</v>
       </c>
       <c r="G17">
-        <v>15.74814335935591</v>
+        <v>48.44200751984381</v>
       </c>
       <c r="I17">
-        <v>49.21076303665104</v>
+        <v>151.3745524587479</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>9.917536953359345</v>
+        <v>30.50679617972512</v>
       </c>
       <c r="C18">
-        <v>0.06752180278068423</v>
+        <v>0.2077001461960971</v>
       </c>
       <c r="D18">
-        <v>9.046582656107672</v>
+        <v>27.82770102201941</v>
       </c>
       <c r="F18">
-        <v>10.29208772644314</v>
+        <v>31.65893144750001</v>
       </c>
       <c r="G18">
-        <v>20.12262762584365</v>
+        <v>61.89812071980044</v>
       </c>
       <c r="I18">
-        <v>49.44635676453449</v>
+        <v>152.0992495152411</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>11.13047312751121</v>
+        <v>34.23784319451168</v>
       </c>
       <c r="C19">
-        <v>0.0578758309548722</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D19">
-        <v>7.754213705235146</v>
+        <v>23.85231516173093</v>
       </c>
       <c r="E19">
-        <v>3.368718774628544</v>
+        <v>10.362332656557</v>
       </c>
       <c r="F19">
-        <v>13.15100098378846</v>
+        <v>40.45307907180559</v>
       </c>
       <c r="G19">
-        <v>19.24773077254611</v>
+        <v>59.2068980798091</v>
       </c>
       <c r="I19">
-        <v>54.71001319466434</v>
+        <v>168.2904968611538</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>19.90642309343352</v>
+        <v>61.23306571326127</v>
       </c>
       <c r="C20">
-        <v>0.03858388730324813</v>
+        <v>0.1186857978263412</v>
       </c>
       <c r="D20">
-        <v>18.09316531221534</v>
+        <v>55.65540204403883</v>
       </c>
       <c r="E20">
-        <v>1.684359387314272</v>
+        <v>5.181166328278501</v>
       </c>
       <c r="F20">
-        <v>26.30200196757692</v>
+        <v>80.90615814361118</v>
       </c>
       <c r="G20">
-        <v>24.4971118923314</v>
+        <v>75.35423391975706</v>
       </c>
       <c r="I20">
-        <v>90.5216455401747</v>
+        <v>278.4487119467732</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>47.87530428564116</v>
+        <v>147.2666204071623</v>
       </c>
       <c r="C21">
-        <v>0.0289379154774361</v>
+        <v>0.0890143483697559</v>
       </c>
       <c r="D21">
-        <v>38.77106852617572</v>
+        <v>119.2615758086547</v>
       </c>
       <c r="E21">
-        <v>15.58032433265702</v>
+        <v>47.92578853657616</v>
       </c>
       <c r="F21">
-        <v>46.88617742046321</v>
+        <v>144.2240210386111</v>
       </c>
       <c r="G21">
-        <v>35.87077098519955</v>
+        <v>110.3401282396443</v>
       </c>
       <c r="H21">
-        <v>1.64859961461717</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I21">
-        <v>186.6611830802313</v>
+        <v>574.1783160148559</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>90.97021306138971</v>
+        <v>279.8285261089894</v>
       </c>
       <c r="C22">
-        <v>0.04179921124518548</v>
+        <v>0.1285762809785363</v>
       </c>
       <c r="D22">
-        <v>82.71161285584162</v>
+        <v>254.4246950584632</v>
       </c>
       <c r="E22">
-        <v>41.68789483602824</v>
+        <v>128.2338666248929</v>
       </c>
       <c r="F22">
-        <v>80.62135385713793</v>
+        <v>247.9949630054167</v>
       </c>
       <c r="G22">
-        <v>62.99257343742362</v>
+        <v>193.7680300793753</v>
       </c>
       <c r="H22">
-        <v>5.495332048723901</v>
+        <v>16.90389211945869</v>
       </c>
       <c r="I22">
-        <v>364.5207793077903</v>
+        <v>1121.282549277575</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>146.4085311388012</v>
+        <v>450.3593220201148</v>
       </c>
       <c r="C23">
-        <v>0.04501453518712282</v>
+        <v>0.1384667641307314</v>
       </c>
       <c r="D23">
-        <v>64.61844754362626</v>
+        <v>198.7692930144245</v>
       </c>
       <c r="E23">
-        <v>41.26680498919966</v>
+        <v>126.9385750428233</v>
       </c>
       <c r="F23">
-        <v>93.77235484092643</v>
+        <v>288.4480420772223</v>
       </c>
       <c r="G23">
-        <v>79.61561365007707</v>
+        <v>244.9012602392104</v>
       </c>
       <c r="H23">
-        <v>4.94579884385151</v>
+        <v>15.21350290751282</v>
       </c>
       <c r="I23">
-        <v>430.6725655416693</v>
+        <v>1324.768462065439</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>179.72860133462</v>
+        <v>552.853378249839</v>
       </c>
       <c r="C24">
-        <v>0.09324439431618296</v>
+        <v>0.2868240114136579</v>
       </c>
       <c r="D24">
-        <v>94.34293341369433</v>
+        <v>290.2031678010596</v>
       </c>
       <c r="E24">
-        <v>25.26539080971408</v>
+        <v>77.71749492417754</v>
       </c>
       <c r="F24">
-        <v>114.9283129452818</v>
+        <v>353.5247344970834</v>
       </c>
       <c r="G24">
-        <v>97.11355071602807</v>
+        <v>298.725713039037</v>
       </c>
       <c r="H24">
-        <v>10.9906640974478</v>
+        <v>33.80778423891738</v>
       </c>
       <c r="I24">
-        <v>522.4626977111022</v>
+        <v>1607.119096761528</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>130.7117100615419</v>
+        <v>402.0751841817009</v>
       </c>
       <c r="C25">
-        <v>0.1639815210388046</v>
+        <v>0.5044146407619501</v>
       </c>
       <c r="D25">
-        <v>131.8216329889974</v>
+        <v>405.4893577494257</v>
       </c>
       <c r="E25">
-        <v>25.26539080971408</v>
+        <v>77.71749492417754</v>
       </c>
       <c r="F25">
-        <v>129.2228792320084</v>
+        <v>397.4954726186113</v>
       </c>
       <c r="G25">
-        <v>129.4847342880374</v>
+        <v>398.3009507187157</v>
       </c>
       <c r="H25">
-        <v>15.38692973642692</v>
+        <v>47.33089793448433</v>
       </c>
       <c r="I25">
-        <v>562.057258637765</v>
+        <v>1728.913772767877</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>110.591239407964</v>
+        <v>340.1836984070068</v>
       </c>
       <c r="C26">
-        <v>0.1093210140258697</v>
+        <v>0.3362764271746335</v>
       </c>
       <c r="D26">
-        <v>140.8682156451052</v>
+        <v>433.3170587714452</v>
       </c>
       <c r="E26">
-        <v>13.47487509851418</v>
+        <v>41.44933062622801</v>
       </c>
       <c r="F26">
-        <v>138.9431843069824</v>
+        <v>427.39557454125</v>
       </c>
       <c r="G26">
-        <v>151.3571556204761</v>
+        <v>465.5815167184988</v>
       </c>
       <c r="H26">
-        <v>7.69346486821346</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I26">
-        <v>563.0374559612812</v>
+        <v>1731.928904458846</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>115.2289365444268</v>
+        <v>354.4494664047199</v>
       </c>
       <c r="C27">
-        <v>0.1350436055613685</v>
+        <v>0.4154002923921942</v>
       </c>
       <c r="D27">
-        <v>135.6987398416151</v>
+        <v>417.4155153302912</v>
       </c>
       <c r="E27">
-        <v>15.15923448582845</v>
+        <v>46.63049695450652</v>
       </c>
       <c r="F27">
-        <v>129.2228792320084</v>
+        <v>397.4954726186113</v>
       </c>
       <c r="G27">
-        <v>134.7341154078227</v>
+        <v>414.4482865586637</v>
       </c>
       <c r="H27">
-        <v>6.044865253596292</v>
+        <v>18.59428133140456</v>
       </c>
       <c r="I27">
-        <v>536.2238143708591</v>
+        <v>1649.44891949059</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>122.0071092823344</v>
+        <v>375.2994350167625</v>
       </c>
       <c r="C28">
-        <v>0.1286129576774938</v>
+        <v>0.3956193260878041</v>
       </c>
       <c r="D28">
-        <v>138.2834777433602</v>
+        <v>425.3662870508683</v>
       </c>
       <c r="E28">
-        <v>13.89596494534275</v>
+        <v>42.74462220829765</v>
       </c>
       <c r="F28">
-        <v>126.9357486261321</v>
+        <v>390.4601545191667</v>
       </c>
       <c r="G28">
-        <v>127.7349405814423</v>
+        <v>392.9185054387333</v>
       </c>
       <c r="H28">
-        <v>10.44113089257541</v>
+        <v>32.11739502697151</v>
       </c>
       <c r="I28">
-        <v>539.4269850288646</v>
+        <v>1659.302018586888</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>120.7941731081826</v>
+        <v>371.568388001976</v>
       </c>
       <c r="C29">
-        <v>0.1157516619097444</v>
+        <v>0.3560573934790236</v>
       </c>
       <c r="D29">
-        <v>115.0208366276547</v>
+        <v>353.8093415656755</v>
       </c>
       <c r="E29">
-        <v>15.15923448582845</v>
+        <v>46.63049695450652</v>
       </c>
       <c r="F29">
-        <v>144.661010821673</v>
+        <v>444.9838697898613</v>
       </c>
       <c r="G29">
-        <v>87.48968532975503</v>
+        <v>269.1222639991324</v>
       </c>
       <c r="H29">
-        <v>7.69346486821346</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I29">
-        <v>490.9341569032171</v>
+        <v>1510.135866671873</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>129.4274247006752</v>
+        <v>398.1246638131034</v>
       </c>
       <c r="C30">
-        <v>0.1125363379678071</v>
+        <v>0.3461669103268285</v>
       </c>
       <c r="D30">
-        <v>160.2537499081932</v>
+        <v>492.9478466757727</v>
       </c>
       <c r="E30">
-        <v>15.58032433265702</v>
+        <v>47.92578853657616</v>
       </c>
       <c r="F30">
-        <v>133.7971404437608</v>
+        <v>411.5661088175002</v>
       </c>
       <c r="G30">
-        <v>105.8625192490036</v>
+        <v>325.6379394389498</v>
       </c>
       <c r="H30">
-        <v>7.69346486821346</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I30">
-        <v>552.727159840471</v>
+        <v>1700.213963159471</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>135.5634547581493</v>
+        <v>416.9993722408474</v>
       </c>
       <c r="C31">
-        <v>0.1189669858516818</v>
+        <v>0.3659478766312187</v>
       </c>
       <c r="D31">
-        <v>152.4995362029579</v>
+        <v>469.0955315140417</v>
       </c>
       <c r="E31">
-        <v>14.73814463899988</v>
+        <v>45.3352053724369</v>
       </c>
       <c r="F31">
-        <v>129.7946618834775</v>
+        <v>399.2543021434723</v>
       </c>
       <c r="G31">
-        <v>90.98927274294522</v>
+        <v>279.8871545590978</v>
       </c>
       <c r="H31">
-        <v>8.79253127795824</v>
+        <v>27.04622739113391</v>
       </c>
       <c r="I31">
-        <v>532.4965684903398</v>
+        <v>1637.983741097661</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>154.1142433040013</v>
+        <v>474.0624442317</v>
       </c>
       <c r="C32">
-        <v>0.09002907037424564</v>
+        <v>0.2769335282614628</v>
       </c>
       <c r="D32">
-        <v>164.1308567608106</v>
+        <v>504.8740042566382</v>
       </c>
       <c r="E32">
-        <v>21.47558218825697</v>
+        <v>66.05987068555091</v>
       </c>
       <c r="F32">
-        <v>124.0768353687868</v>
+        <v>381.6660068948613</v>
       </c>
       <c r="G32">
-        <v>53.36870805115058</v>
+        <v>164.1645810394707</v>
       </c>
       <c r="H32">
-        <v>11.54019730232019</v>
+        <v>35.49817345086325</v>
       </c>
       <c r="I32">
-        <v>528.7964520457006</v>
+        <v>1626.602014087346</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>168.4554298336793</v>
+        <v>518.1765883477057</v>
       </c>
       <c r="C33">
-        <v>0.07073712672262156</v>
+        <v>0.2175906293482922</v>
       </c>
       <c r="D33">
-        <v>140.8682156451052</v>
+        <v>433.3170587714452</v>
       </c>
       <c r="E33">
-        <v>30.73955881848546</v>
+        <v>94.55628549108272</v>
       </c>
       <c r="F33">
-        <v>90.34165893211203</v>
+        <v>277.8950649280557</v>
       </c>
       <c r="G33">
-        <v>41.12015210498487</v>
+        <v>126.4874640795922</v>
       </c>
       <c r="H33">
-        <v>3.84673243410673</v>
+        <v>11.83272448362108</v>
       </c>
       <c r="I33">
-        <v>475.4424848951962</v>
+        <v>1462.482776730851</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>171.0953497421274</v>
+        <v>526.2971024387112</v>
       </c>
       <c r="C34">
-        <v>0.08359842249037096</v>
+        <v>0.2571525619570726</v>
       </c>
       <c r="D34">
-        <v>111.1437297750372</v>
+        <v>341.88318398481</v>
       </c>
       <c r="E34">
-        <v>32.84500805262831</v>
+        <v>101.0327434014308</v>
       </c>
       <c r="F34">
-        <v>48.60152537487039</v>
+        <v>149.5005096131945</v>
       </c>
       <c r="G34">
-        <v>21.87242133243876</v>
+        <v>67.28056599978309</v>
       </c>
       <c r="H34">
-        <v>1.64859961461717</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I34">
-        <v>387.2902323142096</v>
+        <v>1191.322425635724</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>110.4485410345344</v>
+        <v>339.7447516993848</v>
       </c>
       <c r="C35">
-        <v>0.1318282816194311</v>
+        <v>0.4055098092399991</v>
       </c>
       <c r="D35">
-        <v>67.20318544537133</v>
+        <v>206.7200647350015</v>
       </c>
       <c r="E35">
-        <v>26.94975019702835</v>
+        <v>82.89866125245602</v>
       </c>
       <c r="F35">
-        <v>22.29952340729347</v>
+        <v>68.59435146958334</v>
       </c>
       <c r="G35">
-        <v>16.62304021265344</v>
+        <v>51.13323015983514</v>
       </c>
       <c r="H35">
-        <v>2.19813281948956</v>
+        <v>6.761556847783477</v>
       </c>
       <c r="I35">
-        <v>245.8540013979899</v>
+        <v>756.2581259732843</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>95.17981507756377</v>
+        <v>292.7774539838369</v>
       </c>
       <c r="C36">
-        <v>0.1446895773871805</v>
+        <v>0.4450717418487795</v>
       </c>
       <c r="D36">
-        <v>55.57186488751858</v>
+        <v>170.941591992405</v>
       </c>
       <c r="E36">
-        <v>23.15994157557124</v>
+        <v>71.2410370138294</v>
       </c>
       <c r="F36">
-        <v>26.87378461904599</v>
+        <v>82.66498766847226</v>
       </c>
       <c r="G36">
-        <v>13.99834965276081</v>
+        <v>43.05956223986119</v>
       </c>
       <c r="H36">
-        <v>1.64859961461717</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I36">
-        <v>216.5770450044647</v>
+        <v>666.2008722760911</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>72.41942451553767</v>
+        <v>222.7654541181368</v>
       </c>
       <c r="C37">
-        <v>0.08038309854843362</v>
+        <v>0.2472620788048775</v>
       </c>
       <c r="D37">
-        <v>47.81765118228341</v>
+        <v>147.0892768306742</v>
       </c>
       <c r="E37">
-        <v>18.94904310728556</v>
+        <v>58.28812119313316</v>
       </c>
       <c r="F37">
-        <v>18.29704484701002</v>
+        <v>56.28254479555557</v>
       </c>
       <c r="G37">
-        <v>10.4987622395706</v>
+        <v>32.29467167989588</v>
       </c>
       <c r="I37">
-        <v>168.0623089902357</v>
+        <v>516.9673306962004</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>52.94109654239303</v>
+        <v>162.8492285277413</v>
       </c>
       <c r="C38">
-        <v>0.0868137464323083</v>
+        <v>0.2670430451092678</v>
       </c>
       <c r="D38">
-        <v>38.77106852617572</v>
+        <v>119.2615758086547</v>
       </c>
       <c r="E38">
-        <v>9.263976630228496</v>
+        <v>28.49641480553177</v>
       </c>
       <c r="F38">
-        <v>18.29704484701002</v>
+        <v>56.28254479555557</v>
       </c>
       <c r="G38">
-        <v>11.37365909286815</v>
+        <v>34.98589431988723</v>
       </c>
       <c r="H38">
-        <v>0.54953320487239</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I38">
-        <v>131.2831925899801</v>
+        <v>403.8330905144257</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>33.10602263567435</v>
+        <v>101.8356361682911</v>
       </c>
       <c r="C39">
-        <v>0.02250726759356141</v>
+        <v>0.0692333820653657</v>
       </c>
       <c r="D39">
-        <v>16.80079636134283</v>
+        <v>51.68001618375037</v>
       </c>
       <c r="E39">
-        <v>8.42179693657136</v>
+        <v>25.90583164139252</v>
       </c>
       <c r="F39">
-        <v>10.29208772644314</v>
+        <v>31.65893144750001</v>
       </c>
       <c r="G39">
-        <v>16.62304021265344</v>
+        <v>51.13323015983514</v>
       </c>
       <c r="H39">
-        <v>0.54953320487239</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I39">
-        <v>85.81578434515107</v>
+        <v>263.9732681947804</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>23.25983486902984</v>
+        <v>71.5483133423769</v>
       </c>
       <c r="C40">
-        <v>0.05144518307099751</v>
+        <v>0.1582477304351216</v>
       </c>
       <c r="D40">
-        <v>11.63132055785272</v>
+        <v>35.77847274259641</v>
       </c>
       <c r="E40">
-        <v>4.21089846828568</v>
+        <v>12.95291582069626</v>
       </c>
       <c r="F40">
-        <v>20.58417545288629</v>
+        <v>63.31786289500001</v>
       </c>
       <c r="G40">
-        <v>10.4987622395706</v>
+        <v>32.29467167989588</v>
       </c>
       <c r="H40">
-        <v>1.09906640974478</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I40">
-        <v>71.3355031804409</v>
+        <v>219.4312626348923</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>15.05467839682606</v>
+        <v>46.30887765411516</v>
       </c>
       <c r="C41">
-        <v>0.07716777460649626</v>
+        <v>0.2373715956526824</v>
       </c>
       <c r="D41">
-        <v>3.877106852617573</v>
+        <v>11.92615758086547</v>
       </c>
       <c r="F41">
-        <v>14.86634893819565</v>
+        <v>45.7295676463889</v>
       </c>
       <c r="G41">
-        <v>17.49793706595101</v>
+        <v>53.82445279982648</v>
       </c>
       <c r="I41">
-        <v>51.37323902819678</v>
+        <v>158.0264272768487</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>9.703489393214889</v>
+        <v>29.8483761182922</v>
       </c>
       <c r="C42">
-        <v>0.05144518307099751</v>
+        <v>0.1582477304351216</v>
       </c>
       <c r="D42">
-        <v>12.92368950872524</v>
+        <v>39.7538586028849</v>
       </c>
       <c r="F42">
-        <v>10.29208772644314</v>
+        <v>31.65893144750001</v>
       </c>
       <c r="G42">
-        <v>21.87242133243876</v>
+        <v>67.28056599978309</v>
       </c>
       <c r="I42">
-        <v>54.84313314389303</v>
+        <v>168.6999798988953</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>10.91642556736676</v>
+        <v>33.57942313307876</v>
       </c>
       <c r="C43">
-        <v>0.04501453518712282</v>
+        <v>0.1384667641307314</v>
       </c>
       <c r="D43">
-        <v>11.63132055785272</v>
+        <v>35.77847274259641</v>
       </c>
       <c r="E43">
-        <v>3.368718774628544</v>
+        <v>10.362332656557</v>
       </c>
       <c r="F43">
-        <v>12.5792183323194</v>
+        <v>38.69424954694446</v>
       </c>
       <c r="G43">
-        <v>20.9975244791412</v>
+        <v>64.58934335979177</v>
       </c>
       <c r="I43">
-        <v>59.53822224649575</v>
+        <v>183.1422882030992</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>19.47832797314462</v>
+        <v>59.91622559039541</v>
       </c>
       <c r="C44">
-        <v>0.0289379154774361</v>
+        <v>0.0890143483697559</v>
       </c>
       <c r="D44">
-        <v>25.84737901745049</v>
+        <v>79.50771720576979</v>
       </c>
       <c r="E44">
-        <v>1.684359387314272</v>
+        <v>5.181166328278501</v>
       </c>
       <c r="F44">
-        <v>25.73021931610786</v>
+        <v>79.14732861875002</v>
       </c>
       <c r="G44">
-        <v>27.12180245222407</v>
+        <v>83.42790183973104</v>
       </c>
       <c r="I44">
-        <v>99.89102606171875</v>
+        <v>307.2693539312945</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>46.8764156716337</v>
+        <v>144.1939934538088</v>
       </c>
       <c r="C45">
-        <v>0.02250726759356141</v>
+        <v>0.0692333820653657</v>
       </c>
       <c r="D45">
-        <v>55.57186488751858</v>
+        <v>170.941591992405</v>
       </c>
       <c r="E45">
-        <v>15.15923448582845</v>
+        <v>46.63049695450652</v>
       </c>
       <c r="F45">
-        <v>45.74261211752509</v>
+        <v>140.7063619888889</v>
       </c>
       <c r="G45">
-        <v>39.37035839838974</v>
+        <v>121.1050187996096</v>
       </c>
       <c r="H45">
-        <v>1.64859961461717</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I45">
-        <v>204.3915924431063</v>
+        <v>628.7178642071217</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>89.11513420680453</v>
+        <v>274.1222189099042</v>
       </c>
       <c r="C46">
-        <v>0.03215323941937345</v>
+        <v>0.09890483152195102</v>
       </c>
       <c r="D46">
-        <v>118.8979434802723</v>
+        <v>365.735499146541</v>
       </c>
       <c r="E46">
-        <v>40.42462529554254</v>
+        <v>124.347991878684</v>
       </c>
       <c r="F46">
-        <v>78.33422325126168</v>
+        <v>240.9596449059723</v>
       </c>
       <c r="G46">
-        <v>68.24195455720889</v>
+        <v>209.9153659193232</v>
       </c>
       <c r="H46">
-        <v>6.044865253596292</v>
+        <v>18.59428133140456</v>
       </c>
       <c r="I46">
-        <v>401.0908992841057</v>
+        <v>1233.773906923351</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>143.4832144834939</v>
+        <v>441.3609145138651</v>
       </c>
       <c r="C47">
-        <v>0.03536856336131078</v>
+        <v>0.1087953146741461</v>
       </c>
       <c r="D47">
-        <v>93.05056446282177</v>
+        <v>286.2277819407713</v>
       </c>
       <c r="E47">
-        <v>40.00353544871398</v>
+        <v>123.0527002966145</v>
       </c>
       <c r="F47">
-        <v>91.48522423505018</v>
+        <v>281.4127239777779</v>
       </c>
       <c r="G47">
-        <v>86.61478847645749</v>
+        <v>266.431041359141</v>
       </c>
       <c r="H47">
-        <v>5.495332048723901</v>
+        <v>16.90389211945869</v>
       </c>
       <c r="I47">
-        <v>460.1680277186225</v>
+        <v>1415.497849522303</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>176.0897928121645</v>
+        <v>541.6602372054791</v>
       </c>
       <c r="C48">
-        <v>0.07073712672262156</v>
+        <v>0.2175906293482922</v>
       </c>
       <c r="D48">
-        <v>135.6987398416151</v>
+        <v>417.4155153302912</v>
       </c>
       <c r="E48">
-        <v>24.42321111605694</v>
+        <v>75.12691176003825</v>
       </c>
       <c r="F48">
-        <v>112.0693996879364</v>
+        <v>344.7305868727779</v>
       </c>
       <c r="G48">
-        <v>105.8625192490036</v>
+        <v>325.6379394389498</v>
       </c>
       <c r="H48">
-        <v>12.08973050719258</v>
+        <v>37.18856266280912</v>
       </c>
       <c r="I48">
-        <v>566.3041303406918</v>
+        <v>1741.977343899694</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>128.0717901530938</v>
+        <v>393.9546700906952</v>
       </c>
       <c r="C49">
-        <v>0.1253976337355564</v>
+        <v>0.3857288429356089</v>
       </c>
       <c r="D49">
-        <v>189.9782357782612</v>
+        <v>584.3817214624081</v>
       </c>
       <c r="E49">
-        <v>24.42321111605694</v>
+        <v>75.12691176003825</v>
       </c>
       <c r="F49">
-        <v>125.792183323194</v>
+        <v>386.9424954694447</v>
       </c>
       <c r="G49">
-        <v>140.8583933809055</v>
+        <v>433.2868450386031</v>
       </c>
       <c r="H49">
-        <v>17.03552935104409</v>
+        <v>52.40206557032194</v>
       </c>
       <c r="I49">
-        <v>626.284740736291</v>
+        <v>1926.480438234447</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_NOx.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>347.2068457289579</v>
+        <v>108.582610592616</v>
       </c>
       <c r="C2">
-        <v>0.4351812586965844</v>
+        <v>0.1360950042648156</v>
       </c>
       <c r="D2">
-        <v>302.1293253819252</v>
+        <v>94.48543797481715</v>
       </c>
       <c r="E2">
-        <v>42.74462220829765</v>
+        <v>13.36760125920804</v>
       </c>
       <c r="F2">
-        <v>437.9485516904168</v>
+        <v>136.9604246942836</v>
       </c>
       <c r="G2">
-        <v>427.9043997586203</v>
+        <v>133.8192993064659</v>
       </c>
       <c r="H2">
-        <v>21.9750597552963</v>
+        <v>6.872299280704527</v>
       </c>
       <c r="I2">
-        <v>1580.343985782211</v>
+        <v>494.2237681123601</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>361.6920870804821</v>
+        <v>113.1126057247985</v>
       </c>
       <c r="C3">
-        <v>0.5340860902185356</v>
+        <v>0.1670256870522737</v>
       </c>
       <c r="D3">
-        <v>290.2031678010596</v>
+        <v>90.75574963370595</v>
       </c>
       <c r="E3">
-        <v>47.92578853657616</v>
+        <v>14.98791656335447</v>
       </c>
       <c r="F3">
-        <v>408.0484497677779</v>
+        <v>127.6097129681679</v>
       </c>
       <c r="G3">
-        <v>379.4623922387767</v>
+        <v>118.6699446679981</v>
       </c>
       <c r="H3">
-        <v>16.90389211945869</v>
+        <v>5.286384062080407</v>
       </c>
       <c r="I3">
-        <v>1504.76986363435</v>
+        <v>470.5893393071576</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>382.9810024001466</v>
+        <v>119.7703258433091</v>
       </c>
       <c r="C4">
-        <v>0.5143051239141453</v>
+        <v>0.1608395504947821</v>
       </c>
       <c r="D4">
-        <v>294.1785536613484</v>
+        <v>91.998979080743</v>
       </c>
       <c r="E4">
-        <v>44.03991379036726</v>
+        <v>13.77268008524465</v>
       </c>
       <c r="F4">
-        <v>401.0131316683335</v>
+        <v>125.4095455031995</v>
       </c>
       <c r="G4">
-        <v>360.6238337588374</v>
+        <v>112.7785289752606</v>
       </c>
       <c r="H4">
-        <v>28.73661660307977</v>
+        <v>8.986852905536688</v>
       </c>
       <c r="I4">
-        <v>1512.087357006027</v>
+        <v>472.8777519437883</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>379.2499553853601</v>
+        <v>118.6035089153228</v>
       </c>
       <c r="C5">
-        <v>0.4648527081531697</v>
+        <v>0.1453742091010531</v>
       </c>
       <c r="D5">
-        <v>246.4739233378863</v>
+        <v>77.08022571629816</v>
       </c>
       <c r="E5">
-        <v>47.92578853657616</v>
+        <v>14.98791656335447</v>
       </c>
       <c r="F5">
-        <v>457.295676463889</v>
+        <v>143.0108852229467</v>
       </c>
       <c r="G5">
-        <v>247.5924828792018</v>
+        <v>77.43003481883567</v>
       </c>
       <c r="H5">
-        <v>21.9750597552963</v>
+        <v>6.872299280704527</v>
       </c>
       <c r="I5">
-        <v>1400.977739066363</v>
+        <v>438.1302447265634</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>406.2451779041095</v>
+        <v>127.0457725707536</v>
       </c>
       <c r="C6">
-        <v>0.4549622250009747</v>
+        <v>0.1422811408223073</v>
       </c>
       <c r="D6">
-        <v>341.88318398481</v>
+        <v>106.9177324451878</v>
       </c>
       <c r="E6">
-        <v>49.22108011864578</v>
+        <v>15.39299538939108</v>
       </c>
       <c r="F6">
-        <v>422.1190859666668</v>
+        <v>132.0100478981047</v>
       </c>
       <c r="G6">
-        <v>298.725713039037</v>
+        <v>93.42102027055175</v>
       </c>
       <c r="H6">
-        <v>21.9750597552963</v>
+        <v>6.872299280704527</v>
       </c>
       <c r="I6">
-        <v>1540.624262993566</v>
+        <v>481.8021489955158</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>425.5588330394752</v>
+        <v>133.0857660803303</v>
       </c>
       <c r="C7">
-        <v>0.4747431913053647</v>
+        <v>0.1484672773797989</v>
       </c>
       <c r="D7">
-        <v>325.9816405436562</v>
+        <v>101.9448146570396</v>
       </c>
       <c r="E7">
-        <v>46.63049695450652</v>
+        <v>14.58283773731786</v>
       </c>
       <c r="F7">
-        <v>409.8072792926391</v>
+        <v>128.15975483441</v>
       </c>
       <c r="G7">
-        <v>255.6661507991758</v>
+        <v>79.95492725858037</v>
       </c>
       <c r="H7">
-        <v>25.35583817918803</v>
+        <v>7.929576093120609</v>
       </c>
       <c r="I7">
-        <v>1489.474981999946</v>
+        <v>465.8061439381785</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>483.7192717993828</v>
+        <v>151.2743828989417</v>
       </c>
       <c r="C8">
-        <v>0.3560573934790236</v>
+        <v>0.1113504580348492</v>
       </c>
       <c r="D8">
-        <v>349.833955705387</v>
+        <v>109.404191339262</v>
       </c>
       <c r="E8">
-        <v>68.65045384969012</v>
+        <v>21.46917777994019</v>
       </c>
       <c r="F8">
-        <v>392.2189840440279</v>
+        <v>122.6593361719889</v>
       </c>
       <c r="G8">
-        <v>150.7084678395141</v>
+        <v>47.13132554189996</v>
       </c>
       <c r="H8">
-        <v>32.11739502697151</v>
+        <v>10.04412971795277</v>
       </c>
       <c r="I8">
-        <v>1477.604585658453</v>
+        <v>462.0938939080204</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>528.7113093306316</v>
+        <v>165.3448223246599</v>
       </c>
       <c r="C9">
-        <v>0.2868240114136579</v>
+        <v>0.08969898008362852</v>
       </c>
       <c r="D9">
-        <v>302.1293253819252</v>
+        <v>94.48543797481715</v>
       </c>
       <c r="E9">
-        <v>97.14686865522189</v>
+        <v>30.38091195274556</v>
       </c>
       <c r="F9">
-        <v>284.9303830275</v>
+        <v>89.10678233122066</v>
       </c>
       <c r="G9">
-        <v>115.7225735196269</v>
+        <v>36.19012496967319</v>
       </c>
       <c r="H9">
-        <v>10.14233527167521</v>
+        <v>3.171830437248245</v>
       </c>
       <c r="I9">
-        <v>1339.069619197994</v>
+        <v>418.7696089704483</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>537.0512967754488</v>
+        <v>167.9530013401589</v>
       </c>
       <c r="C10">
-        <v>0.3362764271746335</v>
+        <v>0.1051643214773575</v>
       </c>
       <c r="D10">
-        <v>238.5231516173093</v>
+        <v>74.59376682222405</v>
       </c>
       <c r="E10">
-        <v>103.6233265655701</v>
+        <v>32.40630608292857</v>
       </c>
       <c r="F10">
-        <v>153.0181686629167</v>
+        <v>47.85364236306294</v>
       </c>
       <c r="G10">
-        <v>61.89812071980044</v>
+        <v>19.35750870470892</v>
       </c>
       <c r="H10">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I10">
-        <v>1099.521508404058</v>
+        <v>343.8553048531848</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>346.7678990213357</v>
+        <v>108.4453380128529</v>
       </c>
       <c r="C11">
-        <v>0.5241956070663404</v>
+        <v>0.1639326187735279</v>
       </c>
       <c r="D11">
-        <v>143.1138909703857</v>
+        <v>44.75626009333443</v>
       </c>
       <c r="E11">
-        <v>85.4892444165953</v>
+        <v>26.73520251841608</v>
       </c>
       <c r="F11">
-        <v>70.35318099444447</v>
+        <v>22.00167464968412</v>
       </c>
       <c r="G11">
-        <v>45.75078487985251</v>
+        <v>14.30772382521963</v>
       </c>
       <c r="H11">
-        <v>6.761556847783477</v>
+        <v>2.114553624832162</v>
       </c>
       <c r="I11">
-        <v>698.7607527374636</v>
+        <v>218.5246853431128</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>298.7032345367331</v>
+        <v>93.41399052879289</v>
       </c>
       <c r="C12">
-        <v>0.5835385059795108</v>
+        <v>0.1824910284460028</v>
       </c>
       <c r="D12">
-        <v>119.2615758086547</v>
+        <v>37.29688341111203</v>
       </c>
       <c r="E12">
-        <v>73.83162017796869</v>
+        <v>23.08949308408661</v>
       </c>
       <c r="F12">
-        <v>84.42381719333335</v>
+        <v>26.40200957962094</v>
       </c>
       <c r="G12">
-        <v>40.36833959986986</v>
+        <v>12.6244621987232</v>
       </c>
       <c r="H12">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I12">
-        <v>622.2432934583767</v>
+        <v>194.5952450494058</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>227.3743945481673</v>
+        <v>71.10719631728836</v>
       </c>
       <c r="C13">
-        <v>0.3263859440224383</v>
+        <v>0.1020712531986117</v>
       </c>
       <c r="D13">
-        <v>103.3600323675007</v>
+        <v>32.32396562296375</v>
       </c>
       <c r="E13">
-        <v>59.58341277520279</v>
+        <v>18.63362599768393</v>
       </c>
       <c r="F13">
-        <v>58.04137432041668</v>
+        <v>18.15138158598939</v>
       </c>
       <c r="G13">
-        <v>29.60344903990455</v>
+        <v>9.257938945730354</v>
       </c>
       <c r="I13">
-        <v>478.2890489952145</v>
+        <v>149.5761797228544</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>166.1413288349059</v>
+        <v>51.95767144033523</v>
       </c>
       <c r="C14">
-        <v>0.3461669103268285</v>
+        <v>0.1082573897561034</v>
       </c>
       <c r="D14">
-        <v>83.48310306605828</v>
+        <v>26.10781838777841</v>
       </c>
       <c r="E14">
-        <v>29.79170638760139</v>
+        <v>9.316812998841966</v>
       </c>
       <c r="F14">
-        <v>58.04137432041668</v>
+        <v>18.15138158598939</v>
       </c>
       <c r="G14">
-        <v>32.29467167989588</v>
+        <v>10.09956975897856</v>
       </c>
       <c r="H14">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I14">
-        <v>371.7887404111508</v>
+        <v>116.2701499678877</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>104.0303697064008</v>
+        <v>32.53360140385588</v>
       </c>
       <c r="C15">
-        <v>0.0890143483697559</v>
+        <v>0.02783761450871229</v>
       </c>
       <c r="D15">
-        <v>35.77847274259641</v>
+        <v>11.18906502333361</v>
       </c>
       <c r="E15">
-        <v>27.20112322346214</v>
+        <v>8.506655346768756</v>
       </c>
       <c r="F15">
-        <v>31.65893144750001</v>
+        <v>9.900753592357855</v>
       </c>
       <c r="G15">
-        <v>45.75078487985251</v>
+        <v>14.30772382521963</v>
       </c>
       <c r="H15">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I15">
-        <v>246.1990855601275</v>
+        <v>76.99427521225249</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>73.08462681905374</v>
+        <v>22.85588453055698</v>
       </c>
       <c r="C16">
-        <v>0.2077001461960971</v>
+        <v>0.06495443385366202</v>
       </c>
       <c r="D16">
-        <v>23.85231516173093</v>
+        <v>7.459376682222404</v>
       </c>
       <c r="E16">
-        <v>12.95291582069626</v>
+        <v>4.050788260366072</v>
       </c>
       <c r="F16">
-        <v>65.07669241986115</v>
+        <v>20.3515490509578</v>
       </c>
       <c r="G16">
-        <v>29.60344903990455</v>
+        <v>9.257938945730354</v>
       </c>
       <c r="H16">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I16">
-        <v>208.1584778313345</v>
+        <v>65.09776871610336</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>47.18677106935903</v>
+        <v>14.75680232453379</v>
       </c>
       <c r="C17">
-        <v>0.3066049777180482</v>
+        <v>0.09588511664112012</v>
       </c>
       <c r="D17">
-        <v>7.950771720576974</v>
+        <v>2.486458894074135</v>
       </c>
       <c r="F17">
-        <v>47.48839717125001</v>
+        <v>14.85113038853678</v>
       </c>
       <c r="G17">
-        <v>48.44200751984381</v>
+        <v>15.14935463846784</v>
       </c>
       <c r="I17">
-        <v>151.3745524587479</v>
+        <v>47.33963136225367</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>30.50679617972512</v>
+        <v>9.540444293535799</v>
       </c>
       <c r="C18">
-        <v>0.2077001461960971</v>
+        <v>0.06495443385366202</v>
       </c>
       <c r="D18">
-        <v>27.82770102201941</v>
+        <v>8.702606129259472</v>
       </c>
       <c r="F18">
-        <v>31.65893144750001</v>
+        <v>9.900753592357855</v>
       </c>
       <c r="G18">
-        <v>61.89812071980044</v>
+        <v>19.35750870470892</v>
       </c>
       <c r="I18">
-        <v>152.0992495152411</v>
+        <v>47.56626715371571</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>34.23784319451168</v>
+        <v>10.70726122152218</v>
       </c>
       <c r="C19">
-        <v>0.1780286967395118</v>
+        <v>0.05567522901742459</v>
       </c>
       <c r="D19">
-        <v>23.85231516173093</v>
+        <v>7.459376682222404</v>
       </c>
       <c r="E19">
-        <v>10.362332656557</v>
+        <v>3.240630608292857</v>
       </c>
       <c r="F19">
-        <v>40.45307907180559</v>
+        <v>12.65096292356837</v>
       </c>
       <c r="G19">
-        <v>59.2068980798091</v>
+        <v>18.51587789146071</v>
       </c>
       <c r="I19">
-        <v>168.2904968611538</v>
+        <v>52.62978455608395</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>61.23306571326127</v>
+        <v>19.14952487695315</v>
       </c>
       <c r="C20">
-        <v>0.1186857978263412</v>
+        <v>0.03711681934494972</v>
       </c>
       <c r="D20">
-        <v>55.65540204403883</v>
+        <v>17.40521225851894</v>
       </c>
       <c r="E20">
-        <v>5.181166328278501</v>
+        <v>1.620315304146429</v>
       </c>
       <c r="F20">
-        <v>80.90615814361118</v>
+        <v>25.30192584713674</v>
       </c>
       <c r="G20">
-        <v>75.35423391975706</v>
+        <v>23.56566277094998</v>
       </c>
       <c r="I20">
-        <v>278.4487119467732</v>
+        <v>87.07975787705018</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>147.2666204071623</v>
+        <v>46.05495051052171</v>
       </c>
       <c r="C21">
-        <v>0.0890143483697559</v>
+        <v>0.02783761450871229</v>
       </c>
       <c r="D21">
-        <v>119.2615758086547</v>
+        <v>37.29688341111203</v>
       </c>
       <c r="E21">
-        <v>47.92578853657616</v>
+        <v>14.98791656335447</v>
       </c>
       <c r="F21">
-        <v>144.2240210386111</v>
+        <v>45.10343303185243</v>
       </c>
       <c r="G21">
-        <v>110.3401282396443</v>
+        <v>34.50686334317678</v>
       </c>
       <c r="H21">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I21">
-        <v>574.1783160148559</v>
+        <v>179.5637996931502</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>279.8285261089894</v>
+        <v>87.51126959897938</v>
       </c>
       <c r="C22">
-        <v>0.1285762809785363</v>
+        <v>0.04020988762369553</v>
       </c>
       <c r="D22">
-        <v>254.4246950584632</v>
+        <v>79.56668461037231</v>
       </c>
       <c r="E22">
-        <v>128.2338666248929</v>
+        <v>40.10280377762412</v>
       </c>
       <c r="F22">
-        <v>247.9949630054167</v>
+        <v>77.55590314013649</v>
       </c>
       <c r="G22">
-        <v>193.7680300793753</v>
+        <v>60.59741855387136</v>
       </c>
       <c r="H22">
-        <v>16.90389211945869</v>
+        <v>5.286384062080407</v>
       </c>
       <c r="I22">
-        <v>1121.282549277575</v>
+        <v>350.6606736306877</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>450.3593220201148</v>
+        <v>140.8416668369457</v>
       </c>
       <c r="C23">
-        <v>0.1384667641307314</v>
+        <v>0.04330295590244133</v>
       </c>
       <c r="D23">
-        <v>198.7692930144245</v>
+        <v>62.16147235185338</v>
       </c>
       <c r="E23">
-        <v>126.9385750428233</v>
+        <v>39.69772495158752</v>
       </c>
       <c r="F23">
-        <v>288.4480420772223</v>
+        <v>90.20686606370487</v>
       </c>
       <c r="G23">
-        <v>244.9012602392104</v>
+        <v>76.58840400558748</v>
       </c>
       <c r="H23">
-        <v>15.21350290751282</v>
+        <v>4.757745655872365</v>
       </c>
       <c r="I23">
-        <v>1324.768462065439</v>
+        <v>414.2971828214538</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>552.853378249839</v>
+        <v>172.8948142116307</v>
       </c>
       <c r="C24">
-        <v>0.2868240114136579</v>
+        <v>0.08969898008362852</v>
       </c>
       <c r="D24">
-        <v>290.2031678010596</v>
+        <v>90.75574963370595</v>
       </c>
       <c r="E24">
-        <v>77.71749492417754</v>
+        <v>24.30472956219644</v>
       </c>
       <c r="F24">
-        <v>353.5247344970834</v>
+        <v>110.5584151146627</v>
       </c>
       <c r="G24">
-        <v>298.725713039037</v>
+        <v>93.42102027055175</v>
       </c>
       <c r="H24">
-        <v>33.80778423891738</v>
+        <v>10.57276812416081</v>
       </c>
       <c r="I24">
-        <v>1607.119096761528</v>
+        <v>502.5971958969919</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>402.0751841817009</v>
+        <v>125.7416830630041</v>
       </c>
       <c r="C25">
-        <v>0.5044146407619501</v>
+        <v>0.1577464822160363</v>
       </c>
       <c r="D25">
-        <v>405.4893577494257</v>
+        <v>126.8094035977809</v>
       </c>
       <c r="E25">
-        <v>77.71749492417754</v>
+        <v>24.30472956219644</v>
       </c>
       <c r="F25">
-        <v>397.4954726186113</v>
+        <v>124.3094617707153</v>
       </c>
       <c r="G25">
-        <v>398.3009507187157</v>
+        <v>124.5613603607356</v>
       </c>
       <c r="H25">
-        <v>47.33089793448433</v>
+        <v>14.80187537382513</v>
       </c>
       <c r="I25">
-        <v>1728.913772767877</v>
+        <v>540.6862602104735</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>340.1836984070068</v>
+        <v>106.3862493164064</v>
       </c>
       <c r="C26">
-        <v>0.3362764271746335</v>
+        <v>0.1051643214773575</v>
       </c>
       <c r="D26">
-        <v>433.3170587714452</v>
+        <v>135.5120097270404</v>
       </c>
       <c r="E26">
-        <v>41.44933062622801</v>
+        <v>12.96252243317143</v>
       </c>
       <c r="F26">
-        <v>427.39557454125</v>
+        <v>133.6601734968309</v>
       </c>
       <c r="G26">
-        <v>465.5815167184988</v>
+        <v>145.602130691941</v>
       </c>
       <c r="H26">
-        <v>23.66544896724217</v>
+        <v>7.400937686912567</v>
       </c>
       <c r="I26">
-        <v>1731.928904458846</v>
+        <v>541.6291876737801</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>354.4494664047199</v>
+        <v>110.8476081587072</v>
       </c>
       <c r="C27">
-        <v>0.4154002923921942</v>
+        <v>0.129908867707324</v>
       </c>
       <c r="D27">
-        <v>417.4155153302912</v>
+        <v>130.5390919388921</v>
       </c>
       <c r="E27">
-        <v>46.63049695450652</v>
+        <v>14.58283773731786</v>
       </c>
       <c r="F27">
-        <v>397.4954726186113</v>
+        <v>124.3094617707153</v>
       </c>
       <c r="G27">
-        <v>414.4482865586637</v>
+        <v>129.6111452402248</v>
       </c>
       <c r="H27">
-        <v>18.59428133140456</v>
+        <v>5.815022468288446</v>
       </c>
       <c r="I27">
-        <v>1649.44891949059</v>
+        <v>515.8350761818531</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>375.2994350167625</v>
+        <v>117.3680556974548</v>
       </c>
       <c r="C28">
-        <v>0.3956193260878041</v>
+        <v>0.1237227311498324</v>
       </c>
       <c r="D28">
-        <v>425.3662870508683</v>
+        <v>133.0255508329662</v>
       </c>
       <c r="E28">
-        <v>42.74462220829765</v>
+        <v>13.36760125920804</v>
       </c>
       <c r="F28">
-        <v>390.4601545191667</v>
+        <v>122.1092943057469</v>
       </c>
       <c r="G28">
-        <v>392.9185054387333</v>
+        <v>122.8780987342392</v>
       </c>
       <c r="H28">
-        <v>32.11739502697151</v>
+        <v>10.04412971795277</v>
       </c>
       <c r="I28">
-        <v>1659.302018586888</v>
+        <v>518.9164532787178</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>371.568388001976</v>
+        <v>116.2012387694684</v>
       </c>
       <c r="C29">
-        <v>0.3560573934790236</v>
+        <v>0.1113504580348492</v>
       </c>
       <c r="D29">
-        <v>353.8093415656755</v>
+        <v>110.647420786299</v>
       </c>
       <c r="E29">
-        <v>46.63049695450652</v>
+        <v>14.58283773731786</v>
       </c>
       <c r="F29">
-        <v>444.9838697898613</v>
+        <v>139.160592159252</v>
       </c>
       <c r="G29">
-        <v>269.1222639991324</v>
+        <v>84.16308132482138</v>
       </c>
       <c r="H29">
-        <v>23.66544896724217</v>
+        <v>7.400937686912567</v>
       </c>
       <c r="I29">
-        <v>1510.135866671873</v>
+        <v>472.2674589221061</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>398.1246638131034</v>
+        <v>124.5062298451362</v>
       </c>
       <c r="C30">
-        <v>0.3461669103268285</v>
+        <v>0.1082573897561034</v>
       </c>
       <c r="D30">
-        <v>492.9478466757727</v>
+        <v>154.1604514325963</v>
       </c>
       <c r="E30">
-        <v>47.92578853657616</v>
+        <v>14.98791656335447</v>
       </c>
       <c r="F30">
-        <v>411.5661088175002</v>
+        <v>128.7097967006521</v>
       </c>
       <c r="G30">
-        <v>325.6379394389498</v>
+        <v>101.8373284030338</v>
       </c>
       <c r="H30">
-        <v>23.66544896724217</v>
+        <v>7.400937686912567</v>
       </c>
       <c r="I30">
-        <v>1700.213963159471</v>
+        <v>531.7109180214416</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>416.9993722408474</v>
+        <v>130.4089507749496</v>
       </c>
       <c r="C31">
-        <v>0.3659478766312187</v>
+        <v>0.114443526313595</v>
       </c>
       <c r="D31">
-        <v>469.0955315140417</v>
+        <v>146.701074750374</v>
       </c>
       <c r="E31">
-        <v>45.3352053724369</v>
+        <v>14.17775891128125</v>
       </c>
       <c r="F31">
-        <v>399.2543021434723</v>
+        <v>124.8595036369573</v>
       </c>
       <c r="G31">
-        <v>279.8871545590978</v>
+        <v>87.52960457781418</v>
       </c>
       <c r="H31">
-        <v>27.04622739113391</v>
+        <v>8.458214499328649</v>
       </c>
       <c r="I31">
-        <v>1637.983741097661</v>
+        <v>512.2495506770186</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>474.0624442317</v>
+        <v>148.2543861441533</v>
       </c>
       <c r="C32">
-        <v>0.2769335282614628</v>
+        <v>0.08660591180488267</v>
       </c>
       <c r="D32">
-        <v>504.8740042566382</v>
+        <v>157.8901397737075</v>
       </c>
       <c r="E32">
-        <v>66.05987068555091</v>
+        <v>20.65902012786697</v>
       </c>
       <c r="F32">
-        <v>381.6660068948613</v>
+        <v>119.3590849745363</v>
       </c>
       <c r="G32">
-        <v>164.1645810394707</v>
+        <v>51.33947960814105</v>
       </c>
       <c r="H32">
-        <v>35.49817345086325</v>
+        <v>11.10140653036885</v>
       </c>
       <c r="I32">
-        <v>1626.602014087346</v>
+        <v>508.690123070579</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>518.1765883477057</v>
+        <v>162.0502804103456</v>
       </c>
       <c r="C33">
-        <v>0.2175906293482922</v>
+        <v>0.06804750213240782</v>
       </c>
       <c r="D33">
-        <v>433.3170587714452</v>
+        <v>135.5120097270404</v>
       </c>
       <c r="E33">
-        <v>94.55628549108272</v>
+        <v>29.57075430067233</v>
       </c>
       <c r="F33">
-        <v>277.8950649280557</v>
+        <v>86.90661486625224</v>
       </c>
       <c r="G33">
-        <v>126.4874640795922</v>
+        <v>39.55664822266605</v>
       </c>
       <c r="H33">
-        <v>11.83272448362108</v>
+        <v>3.700468843456283</v>
       </c>
       <c r="I33">
-        <v>1462.482776730851</v>
+        <v>457.3648238725653</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>526.2971024387112</v>
+        <v>164.5898231359629</v>
       </c>
       <c r="C34">
-        <v>0.2571525619570726</v>
+        <v>0.08041977524739105</v>
       </c>
       <c r="D34">
-        <v>341.88318398481</v>
+        <v>106.9177324451878</v>
       </c>
       <c r="E34">
-        <v>101.0327434014308</v>
+        <v>31.59614843085537</v>
       </c>
       <c r="F34">
-        <v>149.5005096131945</v>
+        <v>46.75355863057874</v>
       </c>
       <c r="G34">
-        <v>67.28056599978309</v>
+        <v>21.04077033120534</v>
       </c>
       <c r="H34">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I34">
-        <v>1191.322425635724</v>
+        <v>372.5643679676616</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>339.7447516993848</v>
+        <v>106.2489767366433</v>
       </c>
       <c r="C35">
-        <v>0.4055098092399991</v>
+        <v>0.1268157994285782</v>
       </c>
       <c r="D35">
-        <v>206.7200647350015</v>
+        <v>64.6479312459275</v>
       </c>
       <c r="E35">
-        <v>82.89866125245602</v>
+        <v>25.92504486634286</v>
       </c>
       <c r="F35">
-        <v>68.59435146958334</v>
+        <v>21.45163278344201</v>
       </c>
       <c r="G35">
-        <v>51.13323015983514</v>
+        <v>15.99098545171606</v>
       </c>
       <c r="H35">
-        <v>6.761556847783477</v>
+        <v>2.114553624832162</v>
       </c>
       <c r="I35">
-        <v>756.2581259732843</v>
+        <v>236.5059405083325</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>292.7774539838369</v>
+        <v>91.56081070199104</v>
       </c>
       <c r="C36">
-        <v>0.4450717418487795</v>
+        <v>0.1391880725435615</v>
       </c>
       <c r="D36">
-        <v>170.941591992405</v>
+        <v>53.45886622259391</v>
       </c>
       <c r="E36">
-        <v>71.2410370138294</v>
+        <v>22.27933543201339</v>
       </c>
       <c r="F36">
-        <v>82.66498766847226</v>
+        <v>25.85196771337884</v>
       </c>
       <c r="G36">
-        <v>43.05956223986119</v>
+        <v>13.46609301197141</v>
       </c>
       <c r="H36">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I36">
-        <v>666.2008722760911</v>
+        <v>208.3421763731163</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>222.7654541181368</v>
+        <v>69.66583422977575</v>
       </c>
       <c r="C37">
-        <v>0.2472620788048775</v>
+        <v>0.07732670696864524</v>
       </c>
       <c r="D37">
-        <v>147.0892768306742</v>
+        <v>45.9994895403715</v>
       </c>
       <c r="E37">
-        <v>58.28812119313316</v>
+        <v>18.22854717164732</v>
       </c>
       <c r="F37">
-        <v>56.28254479555557</v>
+        <v>17.6013397197473</v>
       </c>
       <c r="G37">
-        <v>32.29467167989588</v>
+        <v>10.09956975897856</v>
       </c>
       <c r="I37">
-        <v>516.9673306962004</v>
+        <v>161.6721071274891</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>162.8492285277413</v>
+        <v>50.92812709211194</v>
       </c>
       <c r="C38">
-        <v>0.2670430451092678</v>
+        <v>0.08351284352613687</v>
       </c>
       <c r="D38">
-        <v>119.2615758086547</v>
+        <v>37.29688341111203</v>
       </c>
       <c r="E38">
-        <v>28.49641480553177</v>
+        <v>8.91173417280536</v>
       </c>
       <c r="F38">
-        <v>56.28254479555557</v>
+        <v>17.6013397197473</v>
       </c>
       <c r="G38">
-        <v>34.98589431988723</v>
+        <v>10.94120057222677</v>
       </c>
       <c r="H38">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I38">
-        <v>403.8330905144257</v>
+        <v>126.2914362177376</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>101.8356361682911</v>
+        <v>31.84723850504034</v>
       </c>
       <c r="C39">
-        <v>0.0692333820653657</v>
+        <v>0.02165147795122067</v>
       </c>
       <c r="D39">
-        <v>51.68001618375037</v>
+        <v>16.16198281148187</v>
       </c>
       <c r="E39">
-        <v>25.90583164139252</v>
+        <v>8.101576520732143</v>
       </c>
       <c r="F39">
-        <v>31.65893144750001</v>
+        <v>9.900753592357855</v>
       </c>
       <c r="G39">
-        <v>51.13323015983514</v>
+        <v>15.99098545171606</v>
       </c>
       <c r="H39">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I39">
-        <v>263.9732681947804</v>
+        <v>82.55282676548754</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>71.5483133423769</v>
+        <v>22.37543050138611</v>
       </c>
       <c r="C40">
-        <v>0.1582477304351216</v>
+        <v>0.04948909245993296</v>
       </c>
       <c r="D40">
-        <v>35.77847274259641</v>
+        <v>11.18906502333361</v>
       </c>
       <c r="E40">
-        <v>12.95291582069626</v>
+        <v>4.050788260366072</v>
       </c>
       <c r="F40">
-        <v>63.31786289500001</v>
+        <v>19.80150718471571</v>
       </c>
       <c r="G40">
-        <v>32.29467167989588</v>
+        <v>10.09956975897856</v>
       </c>
       <c r="H40">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I40">
-        <v>219.4312626348923</v>
+        <v>68.62312663365607</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>46.30887765411516</v>
+        <v>14.48225716500757</v>
       </c>
       <c r="C41">
-        <v>0.2373715956526824</v>
+        <v>0.07423363868989943</v>
       </c>
       <c r="D41">
-        <v>11.92615758086547</v>
+        <v>3.729688341111202</v>
       </c>
       <c r="F41">
-        <v>45.7295676463889</v>
+        <v>14.30108852229468</v>
       </c>
       <c r="G41">
-        <v>53.82445279982648</v>
+        <v>16.83261626496428</v>
       </c>
       <c r="I41">
-        <v>158.0264272768487</v>
+        <v>49.41988393206763</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>29.8483761182922</v>
+        <v>9.334535423891138</v>
       </c>
       <c r="C42">
-        <v>0.1582477304351216</v>
+        <v>0.04948909245993296</v>
       </c>
       <c r="D42">
-        <v>39.7538586028849</v>
+        <v>12.43229447037067</v>
       </c>
       <c r="F42">
-        <v>31.65893144750001</v>
+        <v>9.900753592357855</v>
       </c>
       <c r="G42">
-        <v>67.28056599978309</v>
+        <v>21.04077033120534</v>
       </c>
       <c r="I42">
-        <v>168.6999798988953</v>
+        <v>52.75784291028495</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>33.57942313307876</v>
+        <v>10.50135235187753</v>
       </c>
       <c r="C43">
-        <v>0.1384667641307314</v>
+        <v>0.04330295590244133</v>
       </c>
       <c r="D43">
-        <v>35.77847274259641</v>
+        <v>11.18906502333361</v>
       </c>
       <c r="E43">
-        <v>10.362332656557</v>
+        <v>3.240630608292857</v>
       </c>
       <c r="F43">
-        <v>38.69424954694446</v>
+        <v>12.10092105732626</v>
       </c>
       <c r="G43">
-        <v>64.58934335979177</v>
+        <v>20.19913951795712</v>
       </c>
       <c r="I43">
-        <v>183.1422882030992</v>
+        <v>57.27441151468982</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>59.91622559039541</v>
+        <v>18.73770713766384</v>
       </c>
       <c r="C44">
-        <v>0.0890143483697559</v>
+        <v>0.02783761450871229</v>
       </c>
       <c r="D44">
-        <v>79.50771720576979</v>
+        <v>24.86458894074135</v>
       </c>
       <c r="E44">
-        <v>5.181166328278501</v>
+        <v>1.620315304146429</v>
       </c>
       <c r="F44">
-        <v>79.14732861875002</v>
+        <v>24.75188398089464</v>
       </c>
       <c r="G44">
-        <v>83.42790183973104</v>
+        <v>26.09055521069461</v>
       </c>
       <c r="I44">
-        <v>307.2693539312945</v>
+        <v>96.0928881886496</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>144.1939934538088</v>
+        <v>45.09404245217996</v>
       </c>
       <c r="C45">
-        <v>0.0692333820653657</v>
+        <v>0.02165147795122067</v>
       </c>
       <c r="D45">
-        <v>170.941591992405</v>
+        <v>53.45886622259391</v>
       </c>
       <c r="E45">
-        <v>46.63049695450652</v>
+        <v>14.58283773731786</v>
       </c>
       <c r="F45">
-        <v>140.7063619888889</v>
+        <v>44.00334929936824</v>
       </c>
       <c r="G45">
-        <v>121.1050187996096</v>
+        <v>37.87338659616961</v>
       </c>
       <c r="H45">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I45">
-        <v>628.7178642071217</v>
+        <v>196.6200490042049</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>274.1222189099042</v>
+        <v>85.72672606205907</v>
       </c>
       <c r="C46">
-        <v>0.09890483152195102</v>
+        <v>0.0309306827874581</v>
       </c>
       <c r="D46">
-        <v>365.735499146541</v>
+        <v>114.3771091274102</v>
       </c>
       <c r="E46">
-        <v>124.347991878684</v>
+        <v>38.88756729951431</v>
       </c>
       <c r="F46">
-        <v>240.9596449059723</v>
+        <v>75.35573567516809</v>
       </c>
       <c r="G46">
-        <v>209.9153659193232</v>
+        <v>65.64720343336067</v>
       </c>
       <c r="H46">
-        <v>18.59428133140456</v>
+        <v>5.815022468288446</v>
       </c>
       <c r="I46">
-        <v>1233.773906923351</v>
+        <v>385.8402947485883</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>441.3609145138651</v>
+        <v>138.0275789518022</v>
       </c>
       <c r="C47">
-        <v>0.1087953146741461</v>
+        <v>0.03402375106620391</v>
       </c>
       <c r="D47">
-        <v>286.2277819407713</v>
+        <v>89.51252018666887</v>
       </c>
       <c r="E47">
-        <v>123.0527002966145</v>
+        <v>38.48248847347768</v>
       </c>
       <c r="F47">
-        <v>281.4127239777779</v>
+        <v>88.00669859873648</v>
       </c>
       <c r="G47">
-        <v>266.431041359141</v>
+        <v>83.32145051157318</v>
       </c>
       <c r="H47">
-        <v>16.90389211945869</v>
+        <v>5.286384062080407</v>
       </c>
       <c r="I47">
-        <v>1415.497849522303</v>
+        <v>442.671144535405</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>541.6602372054791</v>
+        <v>169.3943634276715</v>
       </c>
       <c r="C48">
-        <v>0.2175906293482922</v>
+        <v>0.06804750213240782</v>
       </c>
       <c r="D48">
-        <v>417.4155153302912</v>
+        <v>130.5390919388921</v>
       </c>
       <c r="E48">
-        <v>75.12691176003825</v>
+        <v>23.49457191012322</v>
       </c>
       <c r="F48">
-        <v>344.7305868727779</v>
+        <v>107.8082057834522</v>
       </c>
       <c r="G48">
-        <v>325.6379394389498</v>
+        <v>101.8373284030338</v>
       </c>
       <c r="H48">
-        <v>37.18856266280912</v>
+        <v>11.63004493657689</v>
       </c>
       <c r="I48">
-        <v>1741.977343899694</v>
+        <v>544.7716539018821</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>393.9546700906952</v>
+        <v>123.2021403373867</v>
       </c>
       <c r="C49">
-        <v>0.3857288429356089</v>
+        <v>0.1206296628710866</v>
       </c>
       <c r="D49">
-        <v>584.3817214624081</v>
+        <v>182.7547287144489</v>
       </c>
       <c r="E49">
-        <v>75.12691176003825</v>
+        <v>23.49457191012322</v>
       </c>
       <c r="F49">
-        <v>386.9424954694447</v>
+        <v>121.0092105732626</v>
       </c>
       <c r="G49">
-        <v>433.2868450386031</v>
+        <v>135.5025609329623</v>
       </c>
       <c r="H49">
-        <v>52.40206557032194</v>
+        <v>16.38779059244926</v>
       </c>
       <c r="I49">
-        <v>1926.480438234447</v>
+        <v>602.4716327235042</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_NOx.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>108.582610592616</v>
+        <v>269.5201770290731</v>
       </c>
       <c r="C2">
-        <v>0.1360950042648156</v>
+        <v>0.4351812586965844</v>
       </c>
       <c r="D2">
-        <v>94.48543797481715</v>
+        <v>302.0569898219296</v>
       </c>
       <c r="E2">
-        <v>13.36760125920804</v>
+        <v>42.74462220829765</v>
       </c>
       <c r="F2">
-        <v>136.9604246942836</v>
+        <v>437.8335256120485</v>
       </c>
       <c r="G2">
-        <v>133.8192993064659</v>
+        <v>427.8194226086146</v>
       </c>
       <c r="H2">
-        <v>6.872299280704527</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I2">
-        <v>494.2237681123601</v>
+        <v>1502.384978293956</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>113.1126057247985</v>
+        <v>280.7643816333202</v>
       </c>
       <c r="C3">
-        <v>0.1670256870522737</v>
+        <v>0.5340860902185356</v>
       </c>
       <c r="D3">
-        <v>90.75574963370595</v>
+        <v>290.1336875921165</v>
       </c>
       <c r="E3">
-        <v>14.98791656335447</v>
+        <v>47.92578853657616</v>
       </c>
       <c r="F3">
-        <v>127.6097129681679</v>
+        <v>407.941276875483</v>
       </c>
       <c r="G3">
-        <v>118.6699446679981</v>
+        <v>379.3870351434882</v>
       </c>
       <c r="H3">
-        <v>5.286384062080407</v>
+        <v>16.90389211945869</v>
       </c>
       <c r="I3">
-        <v>470.5893393071576</v>
+        <v>1423.590147990661</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>119.7703258433091</v>
+        <v>297.2899550668349</v>
       </c>
       <c r="C4">
-        <v>0.1608395504947821</v>
+        <v>0.5143051239141453</v>
       </c>
       <c r="D4">
-        <v>91.998979080743</v>
+        <v>294.108121668721</v>
       </c>
       <c r="E4">
-        <v>13.77268008524465</v>
+        <v>44.03991379036726</v>
       </c>
       <c r="F4">
-        <v>125.4095455031995</v>
+        <v>400.9078065845264</v>
       </c>
       <c r="G4">
-        <v>112.7785289752606</v>
+        <v>360.552217795939</v>
       </c>
       <c r="H4">
-        <v>8.986852905536688</v>
+        <v>28.73661660307977</v>
       </c>
       <c r="I4">
-        <v>472.8777519437883</v>
+        <v>1426.148936633382</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>118.6035089153228</v>
+        <v>294.393720547559</v>
       </c>
       <c r="C5">
-        <v>0.1453742091010531</v>
+        <v>0.4648527081531697</v>
       </c>
       <c r="D5">
-        <v>77.08022571629816</v>
+        <v>246.4149127494689</v>
       </c>
       <c r="E5">
-        <v>14.98791656335447</v>
+        <v>47.92578853657616</v>
       </c>
       <c r="F5">
-        <v>143.0108852229467</v>
+        <v>457.1755689121794</v>
       </c>
       <c r="G5">
-        <v>77.43003481883567</v>
+        <v>247.5433137106448</v>
       </c>
       <c r="H5">
-        <v>6.872299280704527</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I5">
-        <v>438.1302447265634</v>
+        <v>1315.893216919878</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>127.0457725707536</v>
+        <v>315.3488291282012</v>
       </c>
       <c r="C6">
-        <v>0.1422811408223073</v>
+        <v>0.4549622250009747</v>
       </c>
       <c r="D6">
-        <v>106.9177324451878</v>
+        <v>341.801330587973</v>
       </c>
       <c r="E6">
-        <v>15.39299538939108</v>
+        <v>49.22108011864578</v>
       </c>
       <c r="F6">
-        <v>132.0100478981047</v>
+        <v>422.0082174573961</v>
       </c>
       <c r="G6">
-        <v>93.42102027055175</v>
+        <v>298.666389368278</v>
       </c>
       <c r="H6">
-        <v>6.872299280704527</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I6">
-        <v>481.8021489955158</v>
+        <v>1449.475868640792</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>133.0857660803303</v>
+        <v>330.3411019338639</v>
       </c>
       <c r="C7">
-        <v>0.1484672773797989</v>
+        <v>0.4747431913053647</v>
       </c>
       <c r="D7">
-        <v>101.9448146570396</v>
+        <v>325.9035942815557</v>
       </c>
       <c r="E7">
-        <v>14.58283773731786</v>
+        <v>46.63049695450652</v>
       </c>
       <c r="F7">
-        <v>128.15975483441</v>
+        <v>409.699644448222</v>
       </c>
       <c r="G7">
-        <v>79.95492725858037</v>
+        <v>255.6153782881658</v>
       </c>
       <c r="H7">
-        <v>7.929576093120609</v>
+        <v>25.35583817918803</v>
       </c>
       <c r="I7">
-        <v>465.8061439381785</v>
+        <v>1394.020797276807</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>151.2743828989417</v>
+        <v>375.4882870872804</v>
       </c>
       <c r="C8">
-        <v>0.1113504580348492</v>
+        <v>0.3560573934790236</v>
       </c>
       <c r="D8">
-        <v>109.404191339262</v>
+        <v>349.7501987411817</v>
       </c>
       <c r="E8">
-        <v>21.46917777994019</v>
+        <v>68.65045384969012</v>
       </c>
       <c r="F8">
-        <v>122.6593361719889</v>
+        <v>392.1159687208305</v>
       </c>
       <c r="G8">
-        <v>47.13132554189996</v>
+        <v>150.6785387803925</v>
       </c>
       <c r="H8">
-        <v>10.04412971795277</v>
+        <v>32.11739502697151</v>
       </c>
       <c r="I8">
-        <v>462.0938939080204</v>
+        <v>1369.156899599826</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>165.3448223246599</v>
+        <v>410.4134680550171</v>
       </c>
       <c r="C9">
-        <v>0.08969898008362852</v>
+        <v>0.2868240114136579</v>
       </c>
       <c r="D9">
-        <v>94.48543797481715</v>
+        <v>302.0569898219296</v>
       </c>
       <c r="E9">
-        <v>30.38091195274556</v>
+        <v>97.14686865522189</v>
       </c>
       <c r="F9">
-        <v>89.10678233122066</v>
+        <v>284.8555467837425</v>
       </c>
       <c r="G9">
-        <v>36.19012496967319</v>
+        <v>115.6995922778014</v>
       </c>
       <c r="H9">
-        <v>3.171830437248245</v>
+        <v>10.14233527167521</v>
       </c>
       <c r="I9">
-        <v>418.7696089704483</v>
+        <v>1220.601624876801</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>167.9530013401589</v>
+        <v>416.8874040392807</v>
       </c>
       <c r="C10">
-        <v>0.1051643214773575</v>
+        <v>0.3362764271746335</v>
       </c>
       <c r="D10">
-        <v>74.59376682222405</v>
+        <v>238.4660445962603</v>
       </c>
       <c r="E10">
-        <v>32.40630608292857</v>
+        <v>103.6233265655701</v>
       </c>
       <c r="F10">
-        <v>47.85364236306294</v>
+        <v>152.9779788283061</v>
       </c>
       <c r="G10">
-        <v>19.35750870470892</v>
+        <v>61.8858284276612</v>
       </c>
       <c r="H10">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I10">
-        <v>343.8553048531848</v>
+        <v>979.2480265200907</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>108.4453380128529</v>
+        <v>269.1794435562173</v>
       </c>
       <c r="C11">
-        <v>0.1639326187735279</v>
+        <v>0.5241956070663404</v>
       </c>
       <c r="D11">
-        <v>44.75626009333443</v>
+        <v>143.0796267577562</v>
       </c>
       <c r="E11">
-        <v>26.73520251841608</v>
+        <v>85.4892444165953</v>
       </c>
       <c r="F11">
-        <v>22.00167464968412</v>
+        <v>70.33470290956606</v>
       </c>
       <c r="G11">
-        <v>14.30772382521963</v>
+        <v>45.74169927261915</v>
       </c>
       <c r="H11">
-        <v>2.114553624832162</v>
+        <v>6.761556847783477</v>
       </c>
       <c r="I11">
-        <v>218.5246853431128</v>
+        <v>621.1104693676039</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>93.41399052879289</v>
+        <v>231.8691282784883</v>
       </c>
       <c r="C12">
-        <v>0.1824910284460028</v>
+        <v>0.5835385059795108</v>
       </c>
       <c r="D12">
-        <v>37.29688341111203</v>
+        <v>119.2330222981301</v>
       </c>
       <c r="E12">
-        <v>23.08949308408661</v>
+        <v>73.83162017796869</v>
       </c>
       <c r="F12">
-        <v>26.40200957962094</v>
+        <v>84.40164349147921</v>
       </c>
       <c r="G12">
-        <v>12.6244621987232</v>
+        <v>40.36032288760515</v>
       </c>
       <c r="H12">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I12">
-        <v>194.5952450494058</v>
+        <v>555.3504432754886</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>71.10719631728836</v>
+        <v>176.4999389393932</v>
       </c>
       <c r="C13">
-        <v>0.1020712531986117</v>
+        <v>0.3263859440224383</v>
       </c>
       <c r="D13">
-        <v>32.32396562296375</v>
+        <v>103.3352859917127</v>
       </c>
       <c r="E13">
-        <v>18.63362599768393</v>
+        <v>59.58341277520279</v>
       </c>
       <c r="F13">
-        <v>18.15138158598939</v>
+        <v>58.02612990039199</v>
       </c>
       <c r="G13">
-        <v>9.257938945730354</v>
+        <v>29.5975701175771</v>
       </c>
       <c r="I13">
-        <v>149.5761797228544</v>
+        <v>427.3687236683003</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>51.95767144033523</v>
+        <v>128.9676194759851</v>
       </c>
       <c r="C14">
-        <v>0.1082573897561034</v>
+        <v>0.3461669103268285</v>
       </c>
       <c r="D14">
-        <v>26.10781838777841</v>
+        <v>83.46311560869107</v>
       </c>
       <c r="E14">
-        <v>9.316812998841966</v>
+        <v>29.79170638760139</v>
       </c>
       <c r="F14">
-        <v>18.15138158598939</v>
+        <v>58.02612990039199</v>
       </c>
       <c r="G14">
-        <v>10.09956975897856</v>
+        <v>32.28825831008411</v>
       </c>
       <c r="H14">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I14">
-        <v>116.2701499678877</v>
+        <v>334.5733858050264</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>32.53360140385588</v>
+        <v>80.75383306686513</v>
       </c>
       <c r="C15">
-        <v>0.02783761450871229</v>
+        <v>0.0890143483697559</v>
       </c>
       <c r="D15">
-        <v>11.18906502333361</v>
+        <v>35.76990668943904</v>
       </c>
       <c r="E15">
-        <v>8.506655346768756</v>
+        <v>27.20112322346214</v>
       </c>
       <c r="F15">
-        <v>9.900753592357855</v>
+        <v>31.65061630930472</v>
       </c>
       <c r="G15">
-        <v>14.30772382521963</v>
+        <v>45.74169927261915</v>
       </c>
       <c r="H15">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I15">
-        <v>76.99427521225249</v>
+        <v>222.8965821220058</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>22.85588453055698</v>
+        <v>56.73212323051921</v>
       </c>
       <c r="C16">
-        <v>0.06495443385366202</v>
+        <v>0.2077001461960971</v>
       </c>
       <c r="D16">
-        <v>7.459376682222404</v>
+        <v>23.84660445962602</v>
       </c>
       <c r="E16">
-        <v>4.050788260366072</v>
+        <v>12.95291582069626</v>
       </c>
       <c r="F16">
-        <v>20.3515490509578</v>
+        <v>65.05960019134861</v>
       </c>
       <c r="G16">
-        <v>9.257938945730354</v>
+        <v>29.5975701175771</v>
       </c>
       <c r="H16">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I16">
-        <v>65.09776871610336</v>
+        <v>191.7772923898551</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>14.75680232453379</v>
+        <v>36.62884833201689</v>
       </c>
       <c r="C17">
-        <v>0.09588511664112012</v>
+        <v>0.3066049777180482</v>
       </c>
       <c r="D17">
-        <v>2.486458894074135</v>
+        <v>7.94886815320867</v>
       </c>
       <c r="F17">
-        <v>14.85113038853678</v>
+        <v>47.47592446395706</v>
       </c>
       <c r="G17">
-        <v>15.14935463846784</v>
+        <v>48.43238746512618</v>
       </c>
       <c r="I17">
-        <v>47.33963136225367</v>
+        <v>140.7926333920268</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>9.540444293535799</v>
+        <v>23.68097636348998</v>
       </c>
       <c r="C18">
-        <v>0.06495443385366202</v>
+        <v>0.2077001461960971</v>
       </c>
       <c r="D18">
-        <v>8.702606129259472</v>
+        <v>27.82103853623035</v>
       </c>
       <c r="F18">
-        <v>9.900753592357855</v>
+        <v>31.65061630930472</v>
       </c>
       <c r="G18">
-        <v>19.35750870470892</v>
+        <v>61.8858284276612</v>
       </c>
       <c r="I18">
-        <v>47.56626715371571</v>
+        <v>145.2461597828824</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>10.70726122152218</v>
+        <v>26.57721088276575</v>
       </c>
       <c r="C19">
-        <v>0.05567522901742459</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D19">
-        <v>7.459376682222404</v>
+        <v>23.84660445962602</v>
       </c>
       <c r="E19">
-        <v>3.240630608292857</v>
+        <v>10.362332656557</v>
       </c>
       <c r="F19">
-        <v>12.65096292356837</v>
+        <v>40.44245417300047</v>
       </c>
       <c r="G19">
-        <v>18.51587789146071</v>
+        <v>59.19514023515419</v>
       </c>
       <c r="I19">
-        <v>52.62978455608395</v>
+        <v>160.601771103843</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>19.14952487695315</v>
+        <v>47.532319463408</v>
       </c>
       <c r="C20">
-        <v>0.03711681934494972</v>
+        <v>0.1186857978263412</v>
       </c>
       <c r="D20">
-        <v>17.40521225851894</v>
+        <v>55.64207707246071</v>
       </c>
       <c r="E20">
-        <v>1.620315304146429</v>
+        <v>5.181166328278501</v>
       </c>
       <c r="F20">
-        <v>25.30192584713674</v>
+        <v>80.88490834600094</v>
       </c>
       <c r="G20">
-        <v>23.56566277094998</v>
+        <v>75.33926939019624</v>
       </c>
       <c r="I20">
-        <v>87.07975787705018</v>
+        <v>264.6984263981707</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>46.05495051052171</v>
+        <v>114.3160801431783</v>
       </c>
       <c r="C21">
-        <v>0.02783761450871229</v>
+        <v>0.0890143483697559</v>
       </c>
       <c r="D21">
-        <v>37.29688341111203</v>
+        <v>119.2330222981301</v>
       </c>
       <c r="E21">
-        <v>14.98791656335447</v>
+        <v>47.92578853657616</v>
       </c>
       <c r="F21">
-        <v>45.10343303185243</v>
+        <v>144.1861409646103</v>
       </c>
       <c r="G21">
-        <v>34.50686334317678</v>
+        <v>110.3182158927874</v>
       </c>
       <c r="H21">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I21">
-        <v>179.5637996931502</v>
+        <v>541.1394298194897</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>87.51126959897938</v>
+        <v>217.2175889456816</v>
       </c>
       <c r="C22">
-        <v>0.04020988762369553</v>
+        <v>0.1285762809785363</v>
       </c>
       <c r="D22">
-        <v>79.56668461037231</v>
+        <v>254.3637809026774</v>
       </c>
       <c r="E22">
-        <v>40.10280377762412</v>
+        <v>128.2338666248929</v>
       </c>
       <c r="F22">
-        <v>77.55590314013649</v>
+        <v>247.9298277562203</v>
       </c>
       <c r="G22">
-        <v>60.59741855387136</v>
+        <v>193.7295498605047</v>
       </c>
       <c r="H22">
-        <v>5.286384062080407</v>
+        <v>16.90389211945869</v>
       </c>
       <c r="I22">
-        <v>350.6606736306877</v>
+        <v>1058.507082490414</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>140.8416668369457</v>
+        <v>349.5925431502261</v>
       </c>
       <c r="C23">
-        <v>0.04330295590244133</v>
+        <v>0.1384667641307314</v>
       </c>
       <c r="D23">
-        <v>62.16147235185338</v>
+        <v>198.7217038302168</v>
       </c>
       <c r="E23">
-        <v>39.69772495158752</v>
+        <v>126.9385750428233</v>
       </c>
       <c r="F23">
-        <v>90.20686606370487</v>
+        <v>288.3722819292206</v>
       </c>
       <c r="G23">
-        <v>76.58840400558748</v>
+        <v>244.8526255181377</v>
       </c>
       <c r="H23">
-        <v>4.757745655872365</v>
+        <v>15.21350290751282</v>
       </c>
       <c r="I23">
-        <v>414.2971828214538</v>
+        <v>1223.829699142268</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>172.8948142116307</v>
+        <v>429.1538090620958</v>
       </c>
       <c r="C24">
-        <v>0.08969898008362852</v>
+        <v>0.2868240114136579</v>
       </c>
       <c r="D24">
-        <v>90.75574963370595</v>
+        <v>290.1336875921165</v>
       </c>
       <c r="E24">
-        <v>24.30472956219644</v>
+        <v>77.71749492417754</v>
       </c>
       <c r="F24">
-        <v>110.5584151146627</v>
+        <v>353.4318821205694</v>
       </c>
       <c r="G24">
-        <v>93.42102027055175</v>
+        <v>298.666389368278</v>
       </c>
       <c r="H24">
-        <v>10.57276812416081</v>
+        <v>33.80778423891738</v>
       </c>
       <c r="I24">
-        <v>502.5971958969919</v>
+        <v>1483.197871317568</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>125.7416830630041</v>
+        <v>312.1118611360698</v>
       </c>
       <c r="C25">
-        <v>0.1577464822160363</v>
+        <v>0.5044146407619501</v>
       </c>
       <c r="D25">
-        <v>126.8094035977809</v>
+        <v>405.3922758136422</v>
       </c>
       <c r="E25">
-        <v>24.30472956219644</v>
+        <v>77.71749492417754</v>
       </c>
       <c r="F25">
-        <v>124.3094617707153</v>
+        <v>397.3910714390482</v>
       </c>
       <c r="G25">
-        <v>124.5613603607356</v>
+        <v>398.2218524910373</v>
       </c>
       <c r="H25">
-        <v>14.80187537382513</v>
+        <v>47.33089793448433</v>
       </c>
       <c r="I25">
-        <v>540.6862602104735</v>
+        <v>1638.669868379221</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>106.3862493164064</v>
+        <v>264.0684414633776</v>
       </c>
       <c r="C26">
-        <v>0.1051643214773575</v>
+        <v>0.3362764271746335</v>
       </c>
       <c r="D26">
-        <v>135.5120097270404</v>
+        <v>433.2133143498727</v>
       </c>
       <c r="E26">
-        <v>12.96252243317143</v>
+        <v>41.44933062622801</v>
       </c>
       <c r="F26">
-        <v>133.6601734968309</v>
+        <v>427.2833201756137</v>
       </c>
       <c r="G26">
-        <v>145.602130691941</v>
+        <v>465.4890573037125</v>
       </c>
       <c r="H26">
-        <v>7.400937686912567</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I26">
-        <v>541.6291876737801</v>
+        <v>1655.505189313222</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>110.8476081587072</v>
+        <v>275.1422793311966</v>
       </c>
       <c r="C27">
-        <v>0.129908867707324</v>
+        <v>0.4154002923921942</v>
       </c>
       <c r="D27">
-        <v>130.5390919388921</v>
+        <v>417.3155780434554</v>
       </c>
       <c r="E27">
-        <v>14.58283773731786</v>
+        <v>46.63049695450652</v>
       </c>
       <c r="F27">
-        <v>124.3094617707153</v>
+        <v>397.3910714390482</v>
       </c>
       <c r="G27">
-        <v>129.6111452402248</v>
+        <v>414.3659816460792</v>
       </c>
       <c r="H27">
-        <v>5.815022468288446</v>
+        <v>18.59428133140456</v>
       </c>
       <c r="I27">
-        <v>515.8350761818531</v>
+        <v>1569.855089038083</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>117.3680556974548</v>
+        <v>291.3271192918554</v>
       </c>
       <c r="C28">
-        <v>0.1237227311498324</v>
+        <v>0.3956193260878041</v>
       </c>
       <c r="D28">
-        <v>133.0255508329662</v>
+        <v>425.264446196664</v>
       </c>
       <c r="E28">
-        <v>13.36760125920804</v>
+        <v>42.74462220829765</v>
       </c>
       <c r="F28">
-        <v>122.1092943057469</v>
+        <v>390.3576011480915</v>
       </c>
       <c r="G28">
-        <v>122.8780987342392</v>
+        <v>392.8404761060233</v>
       </c>
       <c r="H28">
-        <v>10.04412971795277</v>
+        <v>32.11739502697151</v>
       </c>
       <c r="I28">
-        <v>518.9164532787178</v>
+        <v>1575.047279303991</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>116.2012387694684</v>
+        <v>288.4308847725797</v>
       </c>
       <c r="C29">
-        <v>0.1113504580348492</v>
+        <v>0.3560573934790236</v>
       </c>
       <c r="D29">
-        <v>110.647420786299</v>
+        <v>353.724632817786</v>
       </c>
       <c r="E29">
-        <v>14.58283773731786</v>
+        <v>46.63049695450652</v>
       </c>
       <c r="F29">
-        <v>139.160592159252</v>
+        <v>444.8669959030051</v>
       </c>
       <c r="G29">
-        <v>84.16308132482138</v>
+        <v>269.068819250701</v>
       </c>
       <c r="H29">
-        <v>7.400937686912567</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I29">
-        <v>472.2674589221061</v>
+        <v>1426.743336059299</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>124.5062298451362</v>
+        <v>309.0452598803659</v>
       </c>
       <c r="C30">
-        <v>0.1082573897561034</v>
+        <v>0.3461669103268285</v>
       </c>
       <c r="D30">
-        <v>154.1604514325963</v>
+        <v>492.8298254989378</v>
       </c>
       <c r="E30">
-        <v>14.98791656335447</v>
+        <v>47.92578853657616</v>
       </c>
       <c r="F30">
-        <v>128.7097967006521</v>
+        <v>411.4580120209613</v>
       </c>
       <c r="G30">
-        <v>101.8373284030338</v>
+        <v>325.5732712933479</v>
       </c>
       <c r="H30">
-        <v>7.400937686912567</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I30">
-        <v>531.7109180214416</v>
+        <v>1610.843773107758</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>130.4089507749496</v>
+        <v>323.6967992131731</v>
       </c>
       <c r="C31">
-        <v>0.114443526313595</v>
+        <v>0.3659478766312187</v>
       </c>
       <c r="D31">
-        <v>146.701074750374</v>
+        <v>468.9832210393117</v>
       </c>
       <c r="E31">
-        <v>14.17775891128125</v>
+        <v>45.3352053724369</v>
       </c>
       <c r="F31">
-        <v>124.8595036369573</v>
+        <v>399.1494390117872</v>
       </c>
       <c r="G31">
-        <v>87.52960457781418</v>
+        <v>279.8315720207291</v>
       </c>
       <c r="H31">
-        <v>8.458214499328649</v>
+        <v>27.04622739113391</v>
       </c>
       <c r="I31">
-        <v>512.2495506770186</v>
+        <v>1544.408411925203</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>148.2543861441533</v>
+        <v>367.9921506844489</v>
       </c>
       <c r="C32">
-        <v>0.08660591180488267</v>
+        <v>0.2769335282614628</v>
       </c>
       <c r="D32">
-        <v>157.8901397737075</v>
+        <v>504.7531277287509</v>
       </c>
       <c r="E32">
-        <v>20.65902012786697</v>
+        <v>66.05987068555091</v>
       </c>
       <c r="F32">
-        <v>119.3590849745363</v>
+        <v>381.5657632843958</v>
       </c>
       <c r="G32">
-        <v>51.33947960814105</v>
+        <v>164.1319797429275</v>
       </c>
       <c r="H32">
-        <v>11.10140653036885</v>
+        <v>35.49817345086325</v>
       </c>
       <c r="I32">
-        <v>508.690123070579</v>
+        <v>1520.277999105199</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>162.0502804103456</v>
+        <v>402.2358647064741</v>
       </c>
       <c r="C33">
-        <v>0.06804750213240782</v>
+        <v>0.2175906293482922</v>
       </c>
       <c r="D33">
-        <v>135.5120097270404</v>
+        <v>433.2133143498727</v>
       </c>
       <c r="E33">
-        <v>29.57075430067233</v>
+        <v>94.55628549108272</v>
       </c>
       <c r="F33">
-        <v>86.90661486625224</v>
+        <v>277.8220764927857</v>
       </c>
       <c r="G33">
-        <v>39.55664822266605</v>
+        <v>126.4623450478294</v>
       </c>
       <c r="H33">
-        <v>3.700468843456283</v>
+        <v>11.83272448362108</v>
       </c>
       <c r="I33">
-        <v>457.3648238725653</v>
+        <v>1346.340201201014</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>164.5898231359629</v>
+        <v>408.5394339543094</v>
       </c>
       <c r="C34">
-        <v>0.08041977524739105</v>
+        <v>0.2571525619570726</v>
       </c>
       <c r="D34">
-        <v>106.9177324451878</v>
+        <v>341.801330587973</v>
       </c>
       <c r="E34">
-        <v>31.59614843085537</v>
+        <v>101.0327434014308</v>
       </c>
       <c r="F34">
-        <v>46.75355863057874</v>
+        <v>149.4612436828279</v>
       </c>
       <c r="G34">
-        <v>21.04077033120534</v>
+        <v>67.26720481267525</v>
       </c>
       <c r="H34">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I34">
-        <v>372.5643679676616</v>
+        <v>1073.430276637011</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>106.2489767366433</v>
+        <v>263.7277079905218</v>
       </c>
       <c r="C35">
-        <v>0.1268157994285782</v>
+        <v>0.4055098092399991</v>
       </c>
       <c r="D35">
-        <v>64.6479312459275</v>
+        <v>206.6705719834255</v>
       </c>
       <c r="E35">
-        <v>25.92504486634286</v>
+        <v>82.89866125245602</v>
       </c>
       <c r="F35">
-        <v>21.45163278344201</v>
+        <v>68.5763353368269</v>
       </c>
       <c r="G35">
-        <v>15.99098545171606</v>
+        <v>51.12307565763316</v>
       </c>
       <c r="H35">
-        <v>2.114553624832162</v>
+        <v>6.761556847783477</v>
       </c>
       <c r="I35">
-        <v>236.5059405083325</v>
+        <v>680.1634188778869</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>91.56081070199104</v>
+        <v>227.2692263949329</v>
       </c>
       <c r="C36">
-        <v>0.1391880725435615</v>
+        <v>0.4450717418487795</v>
       </c>
       <c r="D36">
-        <v>53.45886622259391</v>
+        <v>170.9006652939865</v>
       </c>
       <c r="E36">
-        <v>22.27933543201339</v>
+        <v>71.2410370138294</v>
       </c>
       <c r="F36">
-        <v>25.85196771337884</v>
+        <v>82.64327591874013</v>
       </c>
       <c r="G36">
-        <v>13.46609301197141</v>
+        <v>43.05101108011214</v>
       </c>
       <c r="H36">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I36">
-        <v>208.3421763731163</v>
+        <v>600.6214550792874</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>69.66583422977575</v>
+        <v>172.9222374744054</v>
       </c>
       <c r="C37">
-        <v>0.07732670696864524</v>
+        <v>0.2472620788048775</v>
       </c>
       <c r="D37">
-        <v>45.9994895403715</v>
+        <v>147.0540608343605</v>
       </c>
       <c r="E37">
-        <v>18.22854717164732</v>
+        <v>58.28812119313316</v>
       </c>
       <c r="F37">
-        <v>17.6013397197473</v>
+        <v>56.26776232765283</v>
       </c>
       <c r="G37">
-        <v>10.09956975897856</v>
+        <v>32.28825831008411</v>
       </c>
       <c r="I37">
-        <v>161.6721071274891</v>
+        <v>467.0677022184409</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>50.92812709211194</v>
+        <v>126.4121184295653</v>
       </c>
       <c r="C38">
-        <v>0.08351284352613687</v>
+        <v>0.2670430451092678</v>
       </c>
       <c r="D38">
-        <v>37.29688341111203</v>
+        <v>119.2330222981301</v>
       </c>
       <c r="E38">
-        <v>8.91173417280536</v>
+        <v>28.49641480553177</v>
       </c>
       <c r="F38">
-        <v>17.6013397197473</v>
+        <v>56.26776232765283</v>
       </c>
       <c r="G38">
-        <v>10.94120057222677</v>
+        <v>34.97894650259114</v>
       </c>
       <c r="H38">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I38">
-        <v>126.2914362177376</v>
+        <v>367.3456966205263</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>31.84723850504034</v>
+        <v>79.0501657025853</v>
       </c>
       <c r="C39">
-        <v>0.02165147795122067</v>
+        <v>0.0692333820653657</v>
       </c>
       <c r="D39">
-        <v>16.16198281148187</v>
+        <v>51.66764299585637</v>
       </c>
       <c r="E39">
-        <v>8.101576520732143</v>
+        <v>25.90583164139252</v>
       </c>
       <c r="F39">
-        <v>9.900753592357855</v>
+        <v>31.65061630930472</v>
       </c>
       <c r="G39">
-        <v>15.99098545171606</v>
+        <v>51.12307565763316</v>
       </c>
       <c r="H39">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I39">
-        <v>82.55282676548754</v>
+        <v>241.1569549007833</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>22.37543050138611</v>
+        <v>55.5395560755233</v>
       </c>
       <c r="C40">
-        <v>0.04948909245993296</v>
+        <v>0.1582477304351216</v>
       </c>
       <c r="D40">
-        <v>11.18906502333361</v>
+        <v>35.76990668943904</v>
       </c>
       <c r="E40">
-        <v>4.050788260366072</v>
+        <v>12.95291582069626</v>
       </c>
       <c r="F40">
-        <v>19.80150718471571</v>
+        <v>63.30123261860945</v>
       </c>
       <c r="G40">
-        <v>10.09956975897856</v>
+        <v>32.28825831008411</v>
       </c>
       <c r="H40">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I40">
-        <v>68.62312663365607</v>
+        <v>203.390895668679</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>14.48225716500757</v>
+        <v>35.94738138630495</v>
       </c>
       <c r="C41">
-        <v>0.07423363868989943</v>
+        <v>0.2373715956526824</v>
       </c>
       <c r="D41">
-        <v>3.729688341111202</v>
+        <v>11.92330222981301</v>
       </c>
       <c r="F41">
-        <v>14.30108852229468</v>
+        <v>45.71755689121792</v>
       </c>
       <c r="G41">
-        <v>16.83261626496428</v>
+        <v>53.81376385014018</v>
       </c>
       <c r="I41">
-        <v>49.41988393206763</v>
+        <v>147.6393759531288</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>9.334535423891138</v>
+        <v>23.16987615420602</v>
       </c>
       <c r="C42">
-        <v>0.04948909245993296</v>
+        <v>0.1582477304351216</v>
       </c>
       <c r="D42">
-        <v>12.43229447037067</v>
+        <v>39.74434076604337</v>
       </c>
       <c r="F42">
-        <v>9.900753592357855</v>
+        <v>31.65061630930472</v>
       </c>
       <c r="G42">
-        <v>21.04077033120534</v>
+        <v>67.26720481267525</v>
       </c>
       <c r="I42">
-        <v>52.75784291028495</v>
+        <v>161.9902857726645</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>10.50135235187753</v>
+        <v>26.06611067348179</v>
       </c>
       <c r="C43">
-        <v>0.04330295590244133</v>
+        <v>0.1384667641307314</v>
       </c>
       <c r="D43">
-        <v>11.18906502333361</v>
+        <v>35.76990668943904</v>
       </c>
       <c r="E43">
-        <v>3.240630608292857</v>
+        <v>10.362332656557</v>
       </c>
       <c r="F43">
-        <v>12.10092105732626</v>
+        <v>38.68408660026133</v>
       </c>
       <c r="G43">
-        <v>20.19913951795712</v>
+        <v>64.57651662016822</v>
       </c>
       <c r="I43">
-        <v>57.27441151468982</v>
+        <v>175.5974200040381</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>18.73770713766384</v>
+        <v>46.51011904484007</v>
       </c>
       <c r="C44">
-        <v>0.02783761450871229</v>
+        <v>0.0890143483697559</v>
       </c>
       <c r="D44">
-        <v>24.86458894074135</v>
+        <v>79.48868153208674</v>
       </c>
       <c r="E44">
-        <v>1.620315304146429</v>
+        <v>5.181166328278501</v>
       </c>
       <c r="F44">
-        <v>24.75188398089464</v>
+        <v>79.12654077326177</v>
       </c>
       <c r="G44">
-        <v>26.09055521069461</v>
+        <v>83.41133396771731</v>
       </c>
       <c r="I44">
-        <v>96.0928881886496</v>
+        <v>293.8068559945542</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>45.09404245217996</v>
+        <v>111.9309458331865</v>
       </c>
       <c r="C45">
-        <v>0.02165147795122067</v>
+        <v>0.0692333820653657</v>
       </c>
       <c r="D45">
-        <v>53.45886622259391</v>
+        <v>170.9006652939865</v>
       </c>
       <c r="E45">
-        <v>14.58283773731786</v>
+        <v>46.63049695450652</v>
       </c>
       <c r="F45">
-        <v>44.00334929936824</v>
+        <v>140.6694058191321</v>
       </c>
       <c r="G45">
-        <v>37.87338659616961</v>
+        <v>121.0809686628154</v>
       </c>
       <c r="H45">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I45">
-        <v>196.6200490042049</v>
+        <v>596.35288358153</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>85.72672606205907</v>
+        <v>212.788053798554</v>
       </c>
       <c r="C46">
-        <v>0.0309306827874581</v>
+        <v>0.09890483152195102</v>
       </c>
       <c r="D46">
-        <v>114.3771091274102</v>
+        <v>365.647935047599</v>
       </c>
       <c r="E46">
-        <v>38.88756729951431</v>
+        <v>124.347991878684</v>
       </c>
       <c r="F46">
-        <v>75.35573567516809</v>
+        <v>240.8963574652637</v>
       </c>
       <c r="G46">
-        <v>65.64720343336067</v>
+        <v>209.8736790155467</v>
       </c>
       <c r="H46">
-        <v>5.815022468288446</v>
+        <v>18.59428133140456</v>
       </c>
       <c r="I46">
-        <v>385.8402947485883</v>
+        <v>1172.247203368574</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>138.0275789518022</v>
+        <v>342.6075069566792</v>
       </c>
       <c r="C47">
-        <v>0.03402375106620391</v>
+        <v>0.1087953146741461</v>
       </c>
       <c r="D47">
-        <v>89.51252018666887</v>
+        <v>286.1592535155123</v>
       </c>
       <c r="E47">
-        <v>38.48248847347768</v>
+        <v>123.0527002966145</v>
       </c>
       <c r="F47">
-        <v>88.00669859873648</v>
+        <v>281.3388116382642</v>
       </c>
       <c r="G47">
-        <v>83.32145051157318</v>
+        <v>266.3781310581937</v>
       </c>
       <c r="H47">
-        <v>5.286384062080407</v>
+        <v>16.90389211945869</v>
       </c>
       <c r="I47">
-        <v>442.671144535405</v>
+        <v>1316.549090899397</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>169.3943634276715</v>
+        <v>420.4651055042683</v>
       </c>
       <c r="C48">
-        <v>0.06804750213240782</v>
+        <v>0.2175906293482922</v>
       </c>
       <c r="D48">
-        <v>130.5390919388921</v>
+        <v>417.3155780434554</v>
       </c>
       <c r="E48">
-        <v>23.49457191012322</v>
+        <v>75.12691176003825</v>
       </c>
       <c r="F48">
-        <v>107.8082057834522</v>
+        <v>344.6400442568736</v>
       </c>
       <c r="G48">
-        <v>101.8373284030338</v>
+        <v>325.5732712933479</v>
       </c>
       <c r="H48">
-        <v>11.63004493657689</v>
+        <v>37.18856266280912</v>
       </c>
       <c r="I48">
-        <v>544.7716539018821</v>
+        <v>1620.527064150141</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>123.2021403373867</v>
+        <v>305.8082918882342</v>
       </c>
       <c r="C49">
-        <v>0.1206296628710866</v>
+        <v>0.3857288429356089</v>
       </c>
       <c r="D49">
-        <v>182.7547287144489</v>
+        <v>584.241809260838</v>
       </c>
       <c r="E49">
-        <v>23.49457191012322</v>
+        <v>75.12691176003825</v>
       </c>
       <c r="F49">
-        <v>121.0092105732626</v>
+        <v>386.8408660026132</v>
       </c>
       <c r="G49">
-        <v>135.5025609329623</v>
+        <v>433.2007989936286</v>
       </c>
       <c r="H49">
-        <v>16.38779059244926</v>
+        <v>52.40206557032194</v>
       </c>
       <c r="I49">
-        <v>602.4716327235042</v>
+        <v>1838.00647231861</v>
       </c>
     </row>
   </sheetData>
